--- a/tables/2022-06/sup_table_overview_Jun.xlsx
+++ b/tables/2022-06/sup_table_overview_Jun.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2022-06-05 to 2022-06-26" r:id="rId3" sheetId="1"/>
+    <sheet name="2022-06-01 to 2022-06-30" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="217">
   <si>
     <t>Population size</t>
   </si>
@@ -233,112 +233,154 @@
     <t>NA (NA-NA)</t>
   </si>
   <si>
-    <t>38.42</t>
-  </si>
-  <si>
-    <t>38.79</t>
-  </si>
-  <si>
-    <t>37.55</t>
-  </si>
-  <si>
-    <t>39.47</t>
-  </si>
-  <si>
-    <t>39.16</t>
-  </si>
-  <si>
-    <t>38.61</t>
-  </si>
-  <si>
-    <t>39.39</t>
-  </si>
-  <si>
-    <t>38.39</t>
-  </si>
-  <si>
-    <t>28.55</t>
-  </si>
-  <si>
-    <t>30.45</t>
-  </si>
-  <si>
-    <t>41.39</t>
-  </si>
-  <si>
-    <t>22.87</t>
-  </si>
-  <si>
-    <t>27.17</t>
-  </si>
-  <si>
-    <t>30.22</t>
-  </si>
-  <si>
-    <t>37.80</t>
-  </si>
-  <si>
-    <t>36.26</t>
-  </si>
-  <si>
-    <t>41.37</t>
-  </si>
-  <si>
-    <t>36.61</t>
-  </si>
-  <si>
-    <t>42.53</t>
-  </si>
-  <si>
-    <t>16.74</t>
-  </si>
-  <si>
-    <t>43.42</t>
-  </si>
-  <si>
-    <t>44.57</t>
-  </si>
-  <si>
-    <t>43.97</t>
-  </si>
-  <si>
-    <t>45.84</t>
-  </si>
-  <si>
-    <t>29.28</t>
-  </si>
-  <si>
-    <t>43.49</t>
-  </si>
-  <si>
-    <t>47.54</t>
-  </si>
-  <si>
-    <t>42.50</t>
-  </si>
-  <si>
-    <t>45.06</t>
-  </si>
-  <si>
-    <t>37.23</t>
-  </si>
-  <si>
-    <t>41.93</t>
-  </si>
-  <si>
-    <t>35.61</t>
-  </si>
-  <si>
-    <t>1.7</t>
+    <t>38.66</t>
+  </si>
+  <si>
+    <t>38.40</t>
+  </si>
+  <si>
+    <t>37.34</t>
+  </si>
+  <si>
+    <t>39.06</t>
+  </si>
+  <si>
+    <t>38.18</t>
+  </si>
+  <si>
+    <t>39.40</t>
+  </si>
+  <si>
+    <t>39.87</t>
+  </si>
+  <si>
+    <t>39.53</t>
+  </si>
+  <si>
+    <t>32.31</t>
+  </si>
+  <si>
+    <t>30.85</t>
+  </si>
+  <si>
+    <t>41.46</t>
+  </si>
+  <si>
+    <t>22.78</t>
+  </si>
+  <si>
+    <t>28.67</t>
+  </si>
+  <si>
+    <t>30.37</t>
+  </si>
+  <si>
+    <t>38.02</t>
+  </si>
+  <si>
+    <t>36.22</t>
+  </si>
+  <si>
+    <t>41.92</t>
+  </si>
+  <si>
+    <t>38.26</t>
+  </si>
+  <si>
+    <t>43.58</t>
+  </si>
+  <si>
+    <t>15.62</t>
+  </si>
+  <si>
+    <t>43.64</t>
+  </si>
+  <si>
+    <t>44.76</t>
+  </si>
+  <si>
+    <t>40.82</t>
+  </si>
+  <si>
+    <t>46.85</t>
+  </si>
+  <si>
+    <t>28.40</t>
+  </si>
+  <si>
+    <t>44.05</t>
+  </si>
+  <si>
+    <t>48.18</t>
+  </si>
+  <si>
+    <t>43.38</t>
+  </si>
+  <si>
+    <t>45.12</t>
+  </si>
+  <si>
+    <t>38.63</t>
+  </si>
+  <si>
+    <t>43.17</t>
+  </si>
+  <si>
+    <t>37.02</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>1.3</t>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.9</t>
   </si>
   <si>
     <t>1.6</t>
@@ -347,121 +389,280 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
     <t>&lt;0.1</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>3.8 (0.1-19.6)</t>
-  </si>
-  <si>
-    <t>9.1 (0.2-41.3)</t>
-  </si>
-  <si>
-    <t>0.4 (0.0-2.0)</t>
-  </si>
-  <si>
-    <t>0.4 (0.0-2.1)</t>
-  </si>
-  <si>
-    <t>29.6 (27.0-32.2)</t>
-  </si>
-  <si>
-    <t>26.2 (21.8-31.0)</t>
-  </si>
-  <si>
-    <t>28.8 (23.2-34.9)</t>
-  </si>
-  <si>
-    <t>16.5 (9.7-25.4)</t>
-  </si>
-  <si>
-    <t>36.4 (20.4-54.9)</t>
-  </si>
-  <si>
-    <t>35.4 (28.1-43.2)</t>
-  </si>
-  <si>
-    <t>36.0 (28.6-44.0)</t>
-  </si>
-  <si>
-    <t>33.1 (27.4-39.2)</t>
-  </si>
-  <si>
-    <t>34.3 (19.1-52.2)</t>
-  </si>
-  <si>
-    <t>35.3 (25.2-46.4)</t>
-  </si>
-  <si>
-    <t>32.0 (24.1-40.9)</t>
+    <t>2.6 (0.1-13.5)</t>
+  </si>
+  <si>
+    <t>5.3 (0.1-26.0)</t>
+  </si>
+  <si>
+    <t>0.3 (0.0-1.6)</t>
+  </si>
+  <si>
+    <t>0.3 (0.0-1.9)</t>
+  </si>
+  <si>
+    <t>0.2 (0.0-1.2)</t>
+  </si>
+  <si>
+    <t>0.8 (0.0-4.6)</t>
+  </si>
+  <si>
+    <t>37.5 (35.0-40.0)</t>
+  </si>
+  <si>
+    <t>29.6 (25.4-33.9)</t>
+  </si>
+  <si>
+    <t>31.4 (26.2-37.0)</t>
+  </si>
+  <si>
+    <t>23.5 (16.2-32.2)</t>
+  </si>
+  <si>
+    <t>33.3 (20.4-48.4)</t>
+  </si>
+  <si>
+    <t>50.6 (44.0-57.2)</t>
+  </si>
+  <si>
+    <t>48.6 (41.8-55.5)</t>
+  </si>
+  <si>
+    <t>83.3 (35.9-99.6)</t>
+  </si>
+  <si>
+    <t>77.8 (40.0-97.2)</t>
+  </si>
+  <si>
+    <t>39.0 (33.1-45.0)</t>
+  </si>
+  <si>
+    <t>48.7 (32.4-65.2)</t>
+  </si>
+  <si>
+    <t>40.2 (30.1-51.0)</t>
+  </si>
+  <si>
+    <t>35.9 (27.7-44.7)</t>
+  </si>
+  <si>
+    <t>30.0 (6.7-65.2)</t>
+  </si>
+  <si>
+    <t>35.9 (21.2-52.8)</t>
+  </si>
+  <si>
+    <t>36.8 (16.3-61.6)</t>
+  </si>
+  <si>
+    <t>100.0 (2.5-100.0)</t>
+  </si>
+  <si>
+    <t>27.8 (9.7-53.5)</t>
+  </si>
+  <si>
+    <t>39.5 (34.2-44.9)</t>
+  </si>
+  <si>
+    <t>75.0 (19.4-99.4)</t>
+  </si>
+  <si>
+    <t>57.9 (33.5-79.7)</t>
+  </si>
+  <si>
+    <t>75.0 (34.9-96.8)</t>
+  </si>
+  <si>
+    <t>20.0 (2.5-55.6)</t>
+  </si>
+  <si>
+    <t>37.3 (31.8-43.1)</t>
+  </si>
+  <si>
+    <t>38.4 (29.8-47.5)</t>
+  </si>
+  <si>
+    <t>43.8 (26.4-62.3)</t>
+  </si>
+  <si>
+    <t>36.6 (26.8-47.2)</t>
+  </si>
+  <si>
+    <t>5.8 (4.7-7.1)</t>
+  </si>
+  <si>
+    <t>6.4 (4.4-9.0)</t>
+  </si>
+  <si>
+    <t>6.7 (4.1-10.1)</t>
+  </si>
+  <si>
+    <t>6.7 (2.9-12.8)</t>
+  </si>
+  <si>
+    <t>4.2 (0.5-14.3)</t>
+  </si>
+  <si>
+    <t>6.4 (3.6-10.4)</t>
+  </si>
+  <si>
+    <t>6.9 (3.9-11.1)</t>
+  </si>
+  <si>
+    <t>4.4 (2.3-7.6)</t>
+  </si>
+  <si>
+    <t>2.2 (0.3-7.6)</t>
+  </si>
+  <si>
+    <t>7.6 (3.7-13.6)</t>
+  </si>
+  <si>
+    <t>5.6 (3.4-8.7)</t>
+  </si>
+  <si>
+    <t>10.5 (1.3-33.1)</t>
+  </si>
+  <si>
+    <t>5.8 (3.4-9.1)</t>
+  </si>
+  <si>
+    <t>6.4 (2.8-12.2)</t>
+  </si>
+  <si>
+    <t>8.6 (3.8-16.2)</t>
+  </si>
+  <si>
+    <t>50.9 (48.3-53.5)</t>
+  </si>
+  <si>
+    <t>60.8 (56.2-65.3)</t>
+  </si>
+  <si>
+    <t>60.2 (54.4-65.8)</t>
+  </si>
+  <si>
+    <t>64.7 (55.4-73.2)</t>
+  </si>
+  <si>
+    <t>54.2 (39.2-68.6)</t>
+  </si>
+  <si>
+    <t>38.2 (31.9-44.8)</t>
+  </si>
+  <si>
+    <t>39.4 (32.9-46.3)</t>
+  </si>
+  <si>
+    <t>16.7 (0.4-64.1)</t>
   </si>
   <si>
     <t>22.2 (2.8-60.0)</t>
   </si>
   <si>
-    <t>23.1 (9.0-43.6)</t>
-  </si>
-  <si>
-    <t>18.2 (2.3-51.8)</t>
-  </si>
-  <si>
-    <t>100.0 (2.5-100.0)</t>
-  </si>
-  <si>
-    <t>21.4 (4.7-50.8)</t>
-  </si>
-  <si>
-    <t>30.0 (24.7-35.7)</t>
-  </si>
-  <si>
-    <t>11.1 (0.3-48.2)</t>
-  </si>
-  <si>
-    <t>31.4 (25.9-37.4)</t>
-  </si>
-  <si>
-    <t>28.2 (19.7-37.9)</t>
-  </si>
-  <si>
-    <t>27.3 (10.7-50.2)</t>
-  </si>
-  <si>
-    <t>28.4 (18.9-39.5)</t>
+    <t>49.3 (43.2-55.4)</t>
+  </si>
+  <si>
+    <t>50.0 (39.4-60.6)</t>
+  </si>
+  <si>
+    <t>48.1 (39.3-57.0)</t>
+  </si>
+  <si>
+    <t>60.0 (26.2-87.8)</t>
+  </si>
+  <si>
+    <t>41.0 (25.6-57.9)</t>
+  </si>
+  <si>
+    <t>50.0 (26.0-74.0)</t>
+  </si>
+  <si>
+    <t>47.2 (41.7-52.7)</t>
+  </si>
+  <si>
+    <t>25.0 (0.6-80.6)</t>
+  </si>
+  <si>
+    <t>26.3 (9.1-51.2)</t>
+  </si>
+  <si>
+    <t>25.0 (3.2-65.1)</t>
+  </si>
+  <si>
+    <t>49.2 (43.3-55.0)</t>
+  </si>
+  <si>
+    <t>49.6 (40.5-58.7)</t>
+  </si>
+  <si>
+    <t>53.1 (34.7-70.9)</t>
+  </si>
+  <si>
+    <t>48.4 (37.9-59.0)</t>
+  </si>
+  <si>
+    <t>5.7 (4.5-6.9)</t>
+  </si>
+  <si>
+    <t>3.0 (1.6-5.0)</t>
+  </si>
+  <si>
+    <t>1.7 (0.5-3.9)</t>
+  </si>
+  <si>
+    <t>4.2 (1.4-9.5)</t>
+  </si>
+  <si>
+    <t>8.3 (2.3-20.0)</t>
+  </si>
+  <si>
+    <t>4.7 (2.4-8.3)</t>
+  </si>
+  <si>
+    <t>5.0 (2.5-8.8)</t>
+  </si>
+  <si>
+    <t>7.4 (4.5-11.1)</t>
+  </si>
+  <si>
+    <t>7.6 (3.1-15.1)</t>
+  </si>
+  <si>
+    <t>8.4 (4.3-14.5)</t>
+  </si>
+  <si>
+    <t>10.0 (0.3-44.5)</t>
+  </si>
+  <si>
+    <t>17.9 (7.5-33.5)</t>
+  </si>
+  <si>
+    <t>15.8 (3.4-39.6)</t>
+  </si>
+  <si>
+    <t>22.2 (6.4-47.6)</t>
+  </si>
+  <si>
+    <t>7.4 (4.9-10.8)</t>
+  </si>
+  <si>
+    <t>7.5 (4.7-11.1)</t>
+  </si>
+  <si>
+    <t>5.6 (2.3-11.2)</t>
+  </si>
+  <si>
+    <t>3.1 (0.1-16.2)</t>
+  </si>
+  <si>
+    <t>6.5 (2.4-13.5)</t>
   </si>
 </sst>
 </file>
@@ -643,25 +844,25 @@
         <v>8670300.0</v>
       </c>
       <c r="C2" t="n">
-        <v>70755.0</v>
+        <v>106512.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1282.0</v>
+        <v>2632.0</v>
       </c>
       <c r="E2" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="n">
-        <v>200334.0</v>
+        <v>298980.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2311.0</v>
+        <v>3448.0</v>
       </c>
       <c r="H2" t="s">
         <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>1231.0</v>
+        <v>1503.0</v>
       </c>
       <c r="J2" t="s">
         <v>105</v>
@@ -670,94 +871,94 @@
         <v>1.0</v>
       </c>
       <c r="L2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
       </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O2" t="n">
         <v>0.0</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q2" t="n">
         <v>1.0</v>
       </c>
       <c r="R2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
       </c>
       <c r="T2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
       </c>
       <c r="V2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W2" t="n">
         <v>0.0</v>
       </c>
       <c r="X2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.0</v>
+        <v>563.0</v>
       </c>
       <c r="AB2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AC2" t="n">
         <v>0.0</v>
       </c>
       <c r="AD2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE2" t="n">
-        <v>67.0</v>
+        <v>87.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="AG2" t="n">
-        <v>672.0</v>
+        <v>765.0</v>
       </c>
       <c r="AH2" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="AI2" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK2" t="n">
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM2" t="n">
-        <v>126.0</v>
+        <v>85.0</v>
       </c>
       <c r="AN2" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="3">
@@ -768,25 +969,25 @@
         <v>1845502.0</v>
       </c>
       <c r="C3" t="n">
-        <v>17307.0</v>
+        <v>26087.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1474.0</v>
+        <v>3029.0</v>
       </c>
       <c r="E3" t="s">
         <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>48924.0</v>
+        <v>74351.0</v>
       </c>
       <c r="G3" t="n">
-        <v>2651.0</v>
+        <v>4029.0</v>
       </c>
       <c r="H3" t="s">
         <v>74</v>
       </c>
       <c r="I3" t="n">
-        <v>374.0</v>
+        <v>467.0</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -795,94 +996,94 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
       </c>
       <c r="N3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O3" t="n">
         <v>0.0</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0</v>
       </c>
       <c r="R3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S3" t="n">
         <v>0.0</v>
       </c>
       <c r="T3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U3" t="n">
         <v>0.0</v>
       </c>
       <c r="V3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W3" t="n">
         <v>0.0</v>
       </c>
       <c r="X3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.0</v>
+        <v>138.0</v>
       </c>
       <c r="AB3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AC3" t="n">
         <v>0.0</v>
       </c>
       <c r="AD3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE3" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="AG3" t="n">
-        <v>241.0</v>
+        <v>284.0</v>
       </c>
       <c r="AH3" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="AI3" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK3" t="n">
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM3" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="AN3" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -893,25 +1094,25 @@
         <v>506343.0</v>
       </c>
       <c r="C4" t="n">
-        <v>5661.0</v>
+        <v>8803.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1757.0</v>
+        <v>3725.0</v>
       </c>
       <c r="E4" t="s">
         <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>16861.0</v>
+        <v>26282.0</v>
       </c>
       <c r="G4" t="n">
-        <v>3330.0</v>
+        <v>5191.0</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" t="n">
-        <v>243.0</v>
+        <v>299.0</v>
       </c>
       <c r="J4" t="s">
         <v>107</v>
@@ -920,94 +1121,94 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O4" t="n">
         <v>0.0</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0</v>
       </c>
       <c r="R4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S4" t="n">
         <v>0.0</v>
       </c>
       <c r="T4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U4" t="n">
         <v>0.0</v>
       </c>
       <c r="V4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W4" t="n">
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y4" t="n">
         <v>0.0</v>
       </c>
       <c r="Z4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.0</v>
+        <v>94.0</v>
       </c>
       <c r="AB4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AC4" t="n">
         <v>0.0</v>
       </c>
       <c r="AD4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE4" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="AG4" t="n">
-        <v>154.0</v>
+        <v>180.0</v>
       </c>
       <c r="AH4" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="AI4" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK4" t="n">
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM4" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AN4" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1018,25 +1219,25 @@
         <v>814762.0</v>
       </c>
       <c r="C5" t="n">
-        <v>7517.0</v>
+        <v>11278.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1450.0</v>
+        <v>2966.0</v>
       </c>
       <c r="E5" t="s">
         <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>20914.0</v>
+        <v>31632.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2567.0</v>
+        <v>3882.0</v>
       </c>
       <c r="H5" t="s">
         <v>76</v>
       </c>
       <c r="I5" t="n">
-        <v>97.0</v>
+        <v>119.0</v>
       </c>
       <c r="J5" t="s">
         <v>108</v>
@@ -1045,94 +1246,94 @@
         <v>0.0</v>
       </c>
       <c r="L5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M5" t="n">
         <v>0.0</v>
       </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O5" t="n">
         <v>0.0</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0</v>
       </c>
       <c r="R5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S5" t="n">
         <v>0.0</v>
       </c>
       <c r="T5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U5" t="n">
         <v>0.0</v>
       </c>
       <c r="V5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W5" t="n">
         <v>0.0</v>
       </c>
       <c r="X5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AA5" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="AB5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AC5" t="n">
         <v>0.0</v>
       </c>
       <c r="AD5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="AG5" t="n">
-        <v>70.0</v>
+        <v>77.0</v>
       </c>
       <c r="AH5" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="AI5" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK5" t="n">
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AN5" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1143,118 +1344,118 @@
         <v>348503.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2587.0</v>
+        <v>3669.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1166.0</v>
+        <v>2256.0</v>
       </c>
       <c r="E6" t="s">
         <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>6992.0</v>
+        <v>10117.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2006.0</v>
+        <v>2903.0</v>
       </c>
       <c r="H6" t="s">
         <v>77</v>
       </c>
       <c r="I6" t="n">
-        <v>33.0</v>
+        <v>48.0</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K6" t="n">
         <v>0.0</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M6" t="n">
         <v>0.0</v>
       </c>
       <c r="N6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O6" t="n">
         <v>0.0</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0</v>
       </c>
       <c r="R6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
       </c>
       <c r="T6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
       </c>
       <c r="V6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W6" t="n">
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y6" t="n">
         <v>0.0</v>
       </c>
       <c r="Z6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AC6" t="n">
         <v>0.0</v>
       </c>
       <c r="AD6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="AG6" t="n">
-        <v>16.0</v>
+        <v>26.0</v>
       </c>
       <c r="AH6" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="AI6" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK6" t="n">
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM6" t="n">
         <v>4.0</v>
       </c>
       <c r="AN6" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="AO6" t="n">
         <v>0.0</v>
@@ -1268,121 +1469,121 @@
         <v>1442337.0</v>
       </c>
       <c r="C7" t="n">
-        <v>10178.0</v>
+        <v>15488.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1109.0</v>
+        <v>2301.0</v>
       </c>
       <c r="E7" t="s">
         <v>72</v>
       </c>
       <c r="F7" t="n">
-        <v>27818.0</v>
+        <v>41147.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1929.0</v>
+        <v>2853.0</v>
       </c>
       <c r="H7" t="s">
         <v>78</v>
       </c>
       <c r="I7" t="n">
-        <v>164.0</v>
+        <v>233.0</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K7" t="n">
         <v>0.0</v>
       </c>
       <c r="L7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
       </c>
       <c r="N7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O7" t="n">
         <v>0.0</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0</v>
       </c>
       <c r="R7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S7" t="n">
         <v>0.0</v>
       </c>
       <c r="T7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U7" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W7" t="n">
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y7" t="n">
         <v>0.0</v>
       </c>
       <c r="Z7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.0</v>
+        <v>118.0</v>
       </c>
       <c r="AB7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AC7" t="n">
         <v>0.0</v>
       </c>
       <c r="AD7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE7" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="AG7" t="n">
-        <v>81.0</v>
+        <v>89.0</v>
       </c>
       <c r="AH7" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="AI7" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK7" t="n">
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM7" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="AN7" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -1393,121 +1594,121 @@
         <v>1043132.0</v>
       </c>
       <c r="C8" t="n">
-        <v>7960.0</v>
+        <v>12019.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1199.0</v>
+        <v>2469.0</v>
       </c>
       <c r="E8" t="s">
         <v>72</v>
       </c>
       <c r="F8" t="n">
-        <v>21395.0</v>
+        <v>31648.0</v>
       </c>
       <c r="G8" t="n">
-        <v>2051.0</v>
+        <v>3034.0</v>
       </c>
       <c r="H8" t="s">
         <v>79</v>
       </c>
       <c r="I8" t="n">
-        <v>161.0</v>
+        <v>218.0</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K8" t="n">
         <v>0.0</v>
       </c>
       <c r="L8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M8" t="n">
         <v>0.0</v>
       </c>
       <c r="N8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O8" t="n">
         <v>0.0</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0</v>
       </c>
       <c r="R8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S8" t="n">
         <v>0.0</v>
       </c>
       <c r="T8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
       </c>
       <c r="V8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W8" t="n">
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y8" t="n">
         <v>0.0</v>
       </c>
       <c r="Z8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA8" t="n">
-        <v>58.0</v>
+        <v>106.0</v>
       </c>
       <c r="AB8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AC8" t="n">
         <v>0.0</v>
       </c>
       <c r="AD8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE8" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="AG8" t="n">
-        <v>78.0</v>
+        <v>86.0</v>
       </c>
       <c r="AH8" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="AI8" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK8" t="n">
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM8" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="AN8" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1518,25 +1719,25 @@
         <v>325496.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1799.0</v>
+        <v>2790.0</v>
       </c>
       <c r="D9" t="n">
-        <v>869.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E9" t="s">
         <v>72</v>
       </c>
       <c r="F9" t="n">
-        <v>4868.0</v>
+        <v>7286.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1496.0</v>
+        <v>2238.0</v>
       </c>
       <c r="H9" t="s">
         <v>80</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="J9" t="s">
         <v>111</v>
@@ -1545,94 +1746,94 @@
         <v>0.0</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M9" t="n">
         <v>0.0</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O9" t="n">
         <v>0.0</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0</v>
       </c>
       <c r="R9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S9" t="n">
         <v>0.0</v>
       </c>
       <c r="T9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
       </c>
       <c r="V9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W9" t="n">
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="n">
         <v>0.0</v>
       </c>
       <c r="Z9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB9" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AC9" t="n">
         <v>0.0</v>
       </c>
       <c r="AD9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE9" t="n">
         <v>0.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="n">
         <v>1.0</v>
       </c>
       <c r="AH9" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="AI9" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="n">
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM9" t="n">
         <v>0.0</v>
       </c>
       <c r="AN9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -1643,118 +1844,118 @@
         <v>73709.0</v>
       </c>
       <c r="C10" t="n">
-        <v>419.0</v>
+        <v>679.0</v>
       </c>
       <c r="D10" t="n">
-        <v>893.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E10" t="s">
         <v>72</v>
       </c>
       <c r="F10" t="n">
-        <v>1555.0</v>
+        <v>2213.0</v>
       </c>
       <c r="G10" t="n">
-        <v>2110.0</v>
+        <v>3002.0</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K10" t="n">
         <v>0.0</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O10" t="n">
         <v>0.0</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0</v>
       </c>
       <c r="R10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S10" t="n">
         <v>0.0</v>
       </c>
       <c r="T10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U10" t="n">
         <v>0.0</v>
       </c>
       <c r="V10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W10" t="n">
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="n">
         <v>0.0</v>
       </c>
       <c r="Z10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB10" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="AC10" t="n">
         <v>0.0</v>
       </c>
       <c r="AD10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE10" t="n">
         <v>0.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG10" t="n">
         <v>2.0</v>
       </c>
       <c r="AH10" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="AI10" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK10" t="n">
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM10" t="n">
         <v>0.0</v>
       </c>
       <c r="AN10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AO10" t="n">
         <v>0.0</v>
@@ -1768,121 +1969,121 @@
         <v>1459238.0</v>
       </c>
       <c r="C11" t="n">
-        <v>12044.0</v>
+        <v>18139.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1297.0</v>
+        <v>2664.0</v>
       </c>
       <c r="E11" t="s">
         <v>72</v>
       </c>
       <c r="F11" t="n">
-        <v>41868.0</v>
+        <v>62728.0</v>
       </c>
       <c r="G11" t="n">
-        <v>2869.0</v>
+        <v>4299.0</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="n">
-        <v>257.0</v>
+        <v>272.0</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>0.0</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O11" t="n">
         <v>0.0</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q11" t="n">
         <v>0.0</v>
       </c>
       <c r="R11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S11" t="n">
         <v>0.0</v>
       </c>
       <c r="T11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W11" t="n">
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="n">
         <v>0.0</v>
       </c>
       <c r="Z11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA11" t="n">
-        <v>85.0</v>
+        <v>106.0</v>
       </c>
       <c r="AB11" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AC11" t="n">
         <v>0.0</v>
       </c>
       <c r="AD11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE11" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="AG11" t="n">
-        <v>123.0</v>
+        <v>134.0</v>
       </c>
       <c r="AH11" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="AI11" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK11" t="n">
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM11" t="n">
-        <v>38.0</v>
+        <v>20.0</v>
       </c>
       <c r="AN11" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="12">
@@ -1893,121 +2094,121 @@
         <v>694072.0</v>
       </c>
       <c r="C12" t="n">
-        <v>4954.0</v>
+        <v>7464.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1122.0</v>
+        <v>2304.0</v>
       </c>
       <c r="E12" t="s">
         <v>72</v>
       </c>
       <c r="F12" t="n">
-        <v>12080.0</v>
+        <v>18228.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1740.0</v>
+        <v>2626.0</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K12" t="n">
         <v>0.0</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>0.0</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O12" t="n">
         <v>0.0</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q12" t="n">
         <v>0.0</v>
       </c>
       <c r="R12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S12" t="n">
         <v>0.0</v>
       </c>
       <c r="T12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U12" t="n">
         <v>0.0</v>
       </c>
       <c r="V12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W12" t="n">
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="n">
         <v>0.0</v>
       </c>
       <c r="Z12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="AB12" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AC12" t="n">
         <v>0.0</v>
       </c>
       <c r="AD12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE12" t="n">
         <v>0.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="AH12" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="AI12" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK12" t="n">
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM12" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
@@ -2018,121 +2219,121 @@
         <v>290969.0</v>
       </c>
       <c r="C13" t="n">
-        <v>2807.0</v>
+        <v>4204.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1516.0</v>
+        <v>3096.0</v>
       </c>
       <c r="E13" t="s">
         <v>72</v>
       </c>
       <c r="F13" t="n">
-        <v>12889.0</v>
+        <v>19331.0</v>
       </c>
       <c r="G13" t="n">
-        <v>4430.0</v>
+        <v>6644.0</v>
       </c>
       <c r="H13" t="s">
         <v>84</v>
       </c>
       <c r="I13" t="n">
-        <v>85.0</v>
+        <v>92.0</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K13" t="n">
         <v>0.0</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
         <v>0.0</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O13" t="n">
         <v>0.0</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q13" t="n">
         <v>0.0</v>
       </c>
       <c r="R13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S13" t="n">
         <v>0.0</v>
       </c>
       <c r="T13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U13" t="n">
         <v>0.0</v>
       </c>
       <c r="V13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W13" t="n">
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y13" t="n">
         <v>0.0</v>
       </c>
       <c r="Z13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA13" t="n">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
       <c r="AB13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AC13" t="n">
         <v>0.0</v>
       </c>
       <c r="AD13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE13" t="n">
         <v>2.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="AH13" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="AI13" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK13" t="n">
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM13" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="AN13" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -2143,121 +2344,121 @@
         <v>196735.0</v>
       </c>
       <c r="C14" t="n">
-        <v>2300.0</v>
+        <v>3485.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1837.0</v>
+        <v>3796.0</v>
       </c>
       <c r="E14" t="s">
         <v>72</v>
       </c>
       <c r="F14" t="n">
-        <v>9979.0</v>
+        <v>14765.0</v>
       </c>
       <c r="G14" t="n">
-        <v>5072.0</v>
+        <v>7505.0</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
       </c>
       <c r="I14" t="n">
-        <v>128.0</v>
+        <v>131.0</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K14" t="n">
         <v>0.0</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O14" t="n">
         <v>0.0</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q14" t="n">
         <v>0.0</v>
       </c>
       <c r="R14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S14" t="n">
         <v>0.0</v>
       </c>
       <c r="T14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
       </c>
       <c r="V14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W14" t="n">
         <v>0.0</v>
       </c>
       <c r="X14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y14" t="n">
         <v>0.0</v>
       </c>
       <c r="Z14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA14" t="n">
-        <v>41.0</v>
+        <v>47.0</v>
       </c>
       <c r="AB14" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AC14" t="n">
         <v>0.0</v>
       </c>
       <c r="AD14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="n">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
       <c r="AH14" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="AI14" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="n">
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM14" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="AN14" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
@@ -2268,118 +2469,118 @@
         <v>277462.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1983.0</v>
+        <v>2986.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1123.0</v>
+        <v>2306.0</v>
       </c>
       <c r="E15" t="s">
         <v>72</v>
       </c>
       <c r="F15" t="n">
-        <v>6920.0</v>
+        <v>10404.0</v>
       </c>
       <c r="G15" t="n">
-        <v>2494.0</v>
+        <v>3750.0</v>
       </c>
       <c r="H15" t="s">
         <v>86</v>
       </c>
       <c r="I15" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K15" t="n">
         <v>0.0</v>
       </c>
       <c r="L15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M15" t="n">
         <v>0.0</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O15" t="n">
         <v>0.0</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0</v>
       </c>
       <c r="R15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S15" t="n">
         <v>0.0</v>
       </c>
       <c r="T15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
       </c>
       <c r="V15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W15" t="n">
         <v>0.0</v>
       </c>
       <c r="X15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y15" t="n">
         <v>0.0</v>
       </c>
       <c r="Z15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AC15" t="n">
         <v>0.0</v>
       </c>
       <c r="AD15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE15" t="n">
         <v>0.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG15" t="n">
         <v>6.0</v>
       </c>
       <c r="AH15" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="AI15" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK15" t="n">
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM15" t="n">
         <v>1.0</v>
       </c>
       <c r="AN15" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="AO15" t="n">
         <v>0.0</v>
@@ -2393,25 +2594,25 @@
         <v>825745.0</v>
       </c>
       <c r="C16" t="n">
-        <v>4936.0</v>
+        <v>7352.0</v>
       </c>
       <c r="D16" t="n">
-        <v>939.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E16" t="s">
         <v>72</v>
       </c>
       <c r="F16" t="n">
-        <v>13999.0</v>
+        <v>20652.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1695.0</v>
+        <v>2501.0</v>
       </c>
       <c r="H16" t="s">
         <v>87</v>
       </c>
       <c r="I16" t="n">
-        <v>26.0</v>
+        <v>39.0</v>
       </c>
       <c r="J16" t="s">
         <v>112</v>
@@ -2420,94 +2621,94 @@
         <v>1.0</v>
       </c>
       <c r="L16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M16" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O16" t="n">
         <v>0.0</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
       </c>
       <c r="R16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S16" t="n">
         <v>0.0</v>
       </c>
       <c r="T16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
       </c>
       <c r="V16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W16" t="n">
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y16" t="n">
         <v>0.0</v>
       </c>
       <c r="Z16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AC16" t="n">
         <v>0.0</v>
       </c>
       <c r="AD16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="AH16" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="AI16" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="n">
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM16" t="n">
         <v>7.0</v>
       </c>
       <c r="AN16" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -2518,121 +2719,121 @@
         <v>416347.0</v>
       </c>
       <c r="C17" t="n">
-        <v>2554.0</v>
+        <v>3733.0</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E17" t="s">
         <v>72</v>
       </c>
       <c r="F17" t="n">
-        <v>7592.0</v>
+        <v>11109.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1823.0</v>
+        <v>2668.0</v>
       </c>
       <c r="H17" t="s">
         <v>88</v>
       </c>
       <c r="I17" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K17" t="n">
         <v>1.0</v>
       </c>
       <c r="L17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M17" t="n">
         <v>0.0</v>
       </c>
       <c r="N17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O17" t="n">
         <v>0.0</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q17" t="n">
         <v>0.0</v>
       </c>
       <c r="R17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S17" t="n">
         <v>0.0</v>
       </c>
       <c r="T17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
       </c>
       <c r="V17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W17" t="n">
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y17" t="n">
         <v>0.0</v>
       </c>
       <c r="Z17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AC17" t="n">
         <v>0.0</v>
       </c>
       <c r="AD17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AG17" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AH17" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="AI17" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK17" t="n">
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AN17" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -2643,19 +2844,19 @@
         <v>43520.0</v>
       </c>
       <c r="C18" t="n">
-        <v>222.0</v>
+        <v>325.0</v>
       </c>
       <c r="D18" t="n">
-        <v>802.0</v>
+        <v>1600.0</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
       </c>
       <c r="F18" t="n">
-        <v>568.0</v>
+        <v>823.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1305.0</v>
+        <v>1891.0</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -2664,97 +2865,97 @@
         <v>1.0</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K18" t="n">
         <v>0.0</v>
       </c>
       <c r="L18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O18" t="n">
         <v>0.0</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q18" t="n">
         <v>0.0</v>
       </c>
       <c r="R18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S18" t="n">
         <v>0.0</v>
       </c>
       <c r="T18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
       </c>
       <c r="V18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W18" t="n">
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y18" t="n">
         <v>0.0</v>
       </c>
       <c r="Z18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA18" t="n">
         <v>1.0</v>
       </c>
       <c r="AB18" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AC18" t="n">
         <v>0.0</v>
       </c>
       <c r="AD18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE18" t="n">
         <v>0.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG18" t="n">
         <v>0.0</v>
       </c>
       <c r="AH18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI18" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK18" t="n">
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM18" t="n">
         <v>0.0</v>
       </c>
       <c r="AN18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AO18" t="n">
         <v>0.0</v>
@@ -2768,19 +2969,19 @@
         <v>38108.0</v>
       </c>
       <c r="C19" t="n">
-        <v>179.0</v>
+        <v>271.0</v>
       </c>
       <c r="D19" t="n">
-        <v>738.0</v>
+        <v>1524.0</v>
       </c>
       <c r="E19" t="s">
         <v>72</v>
       </c>
       <c r="F19" t="n">
-        <v>519.0</v>
+        <v>758.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1362.0</v>
+        <v>1989.0</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -2789,97 +2990,97 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K19" t="n">
         <v>0.0</v>
       </c>
       <c r="L19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M19" t="n">
         <v>0.0</v>
       </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O19" t="n">
         <v>0.0</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q19" t="n">
         <v>0.0</v>
       </c>
       <c r="R19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S19" t="n">
         <v>0.0</v>
       </c>
       <c r="T19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
       </c>
       <c r="V19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W19" t="n">
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y19" t="n">
         <v>0.0</v>
       </c>
       <c r="Z19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA19" t="n">
         <v>0.0</v>
       </c>
       <c r="AB19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AC19" t="n">
         <v>0.0</v>
       </c>
       <c r="AD19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE19" t="n">
         <v>0.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="n">
         <v>0.0</v>
       </c>
       <c r="AH19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI19" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="n">
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM19" t="n">
         <v>0.0</v>
       </c>
       <c r="AN19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AO19" t="n">
         <v>0.0</v>
@@ -2893,118 +3094,118 @@
         <v>162157.0</v>
       </c>
       <c r="C20" t="n">
-        <v>813.0</v>
+        <v>1285.0</v>
       </c>
       <c r="D20" t="n">
-        <v>788.0</v>
+        <v>1698.0</v>
       </c>
       <c r="E20" t="s">
         <v>72</v>
       </c>
       <c r="F20" t="n">
-        <v>2069.0</v>
+        <v>3148.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1276.0</v>
+        <v>1941.0</v>
       </c>
       <c r="H20" t="s">
         <v>91</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K20" t="n">
         <v>0.0</v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M20" t="n">
         <v>0.0</v>
       </c>
       <c r="N20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O20" t="n">
         <v>0.0</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q20" t="n">
         <v>0.0</v>
       </c>
       <c r="R20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S20" t="n">
         <v>0.0</v>
       </c>
       <c r="T20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U20" t="n">
         <v>0.0</v>
       </c>
       <c r="V20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W20" t="n">
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y20" t="n">
         <v>0.0</v>
       </c>
       <c r="Z20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB20" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
       </c>
       <c r="AD20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE20" t="n">
         <v>0.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG20" t="n">
         <v>0.0</v>
       </c>
       <c r="AH20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI20" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK20" t="n">
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM20" t="n">
         <v>0.0</v>
       </c>
       <c r="AN20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AO20" t="n">
         <v>0.0</v>
@@ -3018,19 +3219,19 @@
         <v>36819.0</v>
       </c>
       <c r="C21" t="n">
-        <v>106.0</v>
+        <v>157.0</v>
       </c>
       <c r="D21" t="n">
-        <v>452.0</v>
+        <v>914.0</v>
       </c>
       <c r="E21" t="s">
         <v>72</v>
       </c>
       <c r="F21" t="n">
-        <v>669.0</v>
+        <v>999.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1817.0</v>
+        <v>2713.0</v>
       </c>
       <c r="H21" t="s">
         <v>92</v>
@@ -3039,97 +3240,97 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K21" t="n">
         <v>0.0</v>
       </c>
       <c r="L21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M21" t="n">
         <v>0.0</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O21" t="n">
         <v>0.0</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q21" t="n">
         <v>0.0</v>
       </c>
       <c r="R21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S21" t="n">
         <v>0.0</v>
       </c>
       <c r="T21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
       </c>
       <c r="V21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W21" t="n">
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y21" t="n">
         <v>0.0</v>
       </c>
       <c r="Z21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA21" t="n">
         <v>0.0</v>
       </c>
       <c r="AB21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AC21" t="n">
         <v>0.0</v>
       </c>
       <c r="AD21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE21" t="n">
         <v>0.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG21" t="n">
         <v>0.0</v>
       </c>
       <c r="AH21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI21" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK21" t="n">
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM21" t="n">
         <v>0.0</v>
       </c>
       <c r="AN21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AO21" t="n">
         <v>0.0</v>
@@ -3143,25 +3344,25 @@
         <v>128794.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1062.0</v>
+        <v>1581.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1296.0</v>
+        <v>2630.0</v>
       </c>
       <c r="E22" t="s">
         <v>72</v>
       </c>
       <c r="F22" t="n">
-        <v>2582.0</v>
+        <v>3815.0</v>
       </c>
       <c r="G22" t="n">
-        <v>2005.0</v>
+        <v>2962.0</v>
       </c>
       <c r="H22" t="s">
         <v>93</v>
       </c>
       <c r="I22" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="J22" t="s">
         <v>108</v>
@@ -3170,94 +3371,94 @@
         <v>0.0</v>
       </c>
       <c r="L22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M22" t="n">
         <v>0.0</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O22" t="n">
         <v>0.0</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
       </c>
       <c r="R22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S22" t="n">
         <v>0.0</v>
       </c>
       <c r="T22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
       </c>
       <c r="V22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W22" t="n">
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y22" t="n">
         <v>0.0</v>
       </c>
       <c r="Z22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA22" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB22" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AC22" t="n">
         <v>0.0</v>
       </c>
       <c r="AD22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE22" t="n">
         <v>0.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG22" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="AH22" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="AI22" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK22" t="n">
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM22" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="AN22" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -3268,121 +3469,121 @@
         <v>2546396.0</v>
       </c>
       <c r="C23" t="n">
-        <v>21950.0</v>
+        <v>32860.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1355.0</v>
+        <v>2765.0</v>
       </c>
       <c r="E23" t="s">
         <v>72</v>
       </c>
       <c r="F23" t="n">
-        <v>54535.0</v>
+        <v>80957.0</v>
       </c>
       <c r="G23" t="n">
-        <v>2142.0</v>
+        <v>3179.0</v>
       </c>
       <c r="H23" t="s">
         <v>94</v>
       </c>
       <c r="I23" t="n">
-        <v>280.0</v>
+        <v>337.0</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K23" t="n">
         <v>0.0</v>
       </c>
       <c r="L23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M23" t="n">
         <v>0.0</v>
       </c>
       <c r="N23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O23" t="n">
         <v>0.0</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
       </c>
       <c r="R23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="S23" t="n">
         <v>0.0</v>
       </c>
       <c r="T23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
       </c>
       <c r="V23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W23" t="n">
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y23" t="n">
         <v>0.0</v>
       </c>
       <c r="Z23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA23" t="n">
-        <v>84.0</v>
+        <v>133.0</v>
       </c>
       <c r="AB23" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AC23" t="n">
         <v>0.0</v>
       </c>
       <c r="AD23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE23" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="AG23" t="n">
-        <v>141.0</v>
+        <v>159.0</v>
       </c>
       <c r="AH23" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="AI23" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK23" t="n">
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM23" t="n">
-        <v>42.0</v>
+        <v>25.0</v>
       </c>
       <c r="AN23" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="24">
@@ -3393,19 +3594,19 @@
         <v>16293.0</v>
       </c>
       <c r="C24" t="n">
-        <v>58.0</v>
+        <v>76.0</v>
       </c>
       <c r="D24" t="n">
-        <v>559.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E24" t="s">
         <v>72</v>
       </c>
       <c r="F24" t="n">
-        <v>141.0</v>
+        <v>196.0</v>
       </c>
       <c r="G24" t="n">
-        <v>865.0</v>
+        <v>1203.0</v>
       </c>
       <c r="H24" t="s">
         <v>95</v>
@@ -3414,97 +3615,97 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K24" t="n">
         <v>0.0</v>
       </c>
       <c r="L24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M24" t="n">
         <v>0.0</v>
       </c>
       <c r="N24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O24" t="n">
         <v>0.0</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q24" t="n">
         <v>0.0</v>
       </c>
       <c r="R24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S24" t="n">
         <v>0.0</v>
       </c>
       <c r="T24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
       </c>
       <c r="V24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W24" t="n">
         <v>0.0</v>
       </c>
       <c r="X24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y24" t="n">
         <v>0.0</v>
       </c>
       <c r="Z24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA24" t="n">
         <v>0.0</v>
       </c>
       <c r="AB24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AC24" t="n">
         <v>0.0</v>
       </c>
       <c r="AD24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE24" t="n">
         <v>0.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="n">
         <v>0.0</v>
       </c>
       <c r="AH24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI24" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="n">
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM24" t="n">
         <v>0.0</v>
       </c>
       <c r="AN24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AO24" t="n">
         <v>0.0</v>
@@ -3518,118 +3719,118 @@
         <v>55309.0</v>
       </c>
       <c r="C25" t="n">
-        <v>238.0</v>
+        <v>394.0</v>
       </c>
       <c r="D25" t="n">
-        <v>676.0</v>
+        <v>1526.0</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
       </c>
       <c r="F25" t="n">
-        <v>565.0</v>
+        <v>858.0</v>
       </c>
       <c r="G25" t="n">
-        <v>1022.0</v>
+        <v>1551.0</v>
       </c>
       <c r="H25" t="s">
         <v>96</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K25" t="n">
         <v>0.0</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
       </c>
       <c r="N25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O25" t="n">
         <v>0.0</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q25" t="n">
         <v>0.0</v>
       </c>
       <c r="R25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S25" t="n">
         <v>0.0</v>
       </c>
       <c r="T25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
       </c>
       <c r="V25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W25" t="n">
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y25" t="n">
         <v>0.0</v>
       </c>
       <c r="Z25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB25" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
       </c>
       <c r="AD25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE25" t="n">
         <v>0.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG25" t="n">
         <v>1.0</v>
       </c>
       <c r="AH25" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="AI25" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK25" t="n">
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM25" t="n">
         <v>0.0</v>
       </c>
       <c r="AN25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AO25" t="n">
         <v>0.0</v>
@@ -3643,118 +3844,118 @@
         <v>40851.0</v>
       </c>
       <c r="C26" t="n">
-        <v>189.0</v>
+        <v>262.0</v>
       </c>
       <c r="D26" t="n">
-        <v>727.0</v>
+        <v>1374.0</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
       </c>
       <c r="F26" t="n">
-        <v>683.0</v>
+        <v>986.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1672.0</v>
+        <v>2414.0</v>
       </c>
       <c r="H26" t="s">
         <v>97</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K26" t="n">
         <v>0.0</v>
       </c>
       <c r="L26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
       </c>
       <c r="N26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O26" t="n">
         <v>0.0</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q26" t="n">
         <v>0.0</v>
       </c>
       <c r="R26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S26" t="n">
         <v>0.0</v>
       </c>
       <c r="T26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U26" t="n">
         <v>0.0</v>
       </c>
       <c r="V26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W26" t="n">
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y26" t="n">
         <v>0.0</v>
       </c>
       <c r="Z26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB26" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="AC26" t="n">
         <v>0.0</v>
       </c>
       <c r="AD26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE26" t="n">
         <v>0.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG26" t="n">
         <v>0.0</v>
       </c>
       <c r="AH26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI26" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK26" t="n">
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM26" t="n">
         <v>0.0</v>
       </c>
       <c r="AN26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AO26" t="n">
         <v>0.0</v>
@@ -3768,121 +3969,121 @@
         <v>514504.0</v>
       </c>
       <c r="C27" t="n">
-        <v>2354.0</v>
+        <v>3603.0</v>
       </c>
       <c r="D27" t="n">
-        <v>719.0</v>
+        <v>1501.0</v>
       </c>
       <c r="E27" t="s">
         <v>72</v>
       </c>
       <c r="F27" t="n">
-        <v>5748.0</v>
+        <v>8603.0</v>
       </c>
       <c r="G27" t="n">
-        <v>1117.0</v>
+        <v>1672.0</v>
       </c>
       <c r="H27" t="s">
         <v>98</v>
       </c>
       <c r="I27" t="n">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
       <c r="J27" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K27" t="n">
         <v>0.0</v>
       </c>
       <c r="L27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M27" t="n">
         <v>0.0</v>
       </c>
       <c r="N27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
       </c>
       <c r="P27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0</v>
       </c>
       <c r="R27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S27" t="n">
         <v>0.0</v>
       </c>
       <c r="T27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
       </c>
       <c r="V27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W27" t="n">
         <v>0.0</v>
       </c>
       <c r="X27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y27" t="n">
         <v>0.0</v>
       </c>
       <c r="Z27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB27" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
       </c>
       <c r="AD27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="AG27" t="n">
         <v>5.0</v>
       </c>
       <c r="AH27" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="AI27" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK27" t="n">
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM27" t="n">
         <v>1.0</v>
       </c>
       <c r="AN27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -3893,118 +4094,118 @@
         <v>83107.0</v>
       </c>
       <c r="C28" t="n">
-        <v>714.0</v>
+        <v>1053.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1350.0</v>
+        <v>2715.0</v>
       </c>
       <c r="E28" t="s">
         <v>72</v>
       </c>
       <c r="F28" t="n">
-        <v>1666.0</v>
+        <v>2414.0</v>
       </c>
       <c r="G28" t="n">
-        <v>2005.0</v>
+        <v>2905.0</v>
       </c>
       <c r="H28" t="s">
         <v>99</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K28" t="n">
         <v>0.0</v>
       </c>
       <c r="L28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
       </c>
       <c r="N28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O28" t="n">
         <v>0.0</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q28" t="n">
         <v>0.0</v>
       </c>
       <c r="R28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S28" t="n">
         <v>0.0</v>
       </c>
       <c r="T28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
       </c>
       <c r="V28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W28" t="n">
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y28" t="n">
         <v>0.0</v>
       </c>
       <c r="Z28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB28" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="n">
         <v>0.0</v>
       </c>
       <c r="AD28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE28" t="n">
         <v>0.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AH28" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="AI28" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK28" t="n">
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM28" t="n">
         <v>0.0</v>
       </c>
       <c r="AN28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AO28" t="n">
         <v>0.0</v>
@@ -4018,118 +4219,118 @@
         <v>282909.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1743.0</v>
+        <v>2695.0</v>
       </c>
       <c r="D29" t="n">
-        <v>968.0</v>
+        <v>2041.0</v>
       </c>
       <c r="E29" t="s">
         <v>72</v>
       </c>
       <c r="F29" t="n">
-        <v>4438.0</v>
+        <v>6729.0</v>
       </c>
       <c r="G29" t="n">
-        <v>1569.0</v>
+        <v>2379.0</v>
       </c>
       <c r="H29" t="s">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
       </c>
       <c r="L29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M29" t="n">
         <v>0.0</v>
       </c>
       <c r="N29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O29" t="n">
         <v>0.0</v>
       </c>
       <c r="P29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q29" t="n">
         <v>0.0</v>
       </c>
       <c r="R29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S29" t="n">
         <v>0.0</v>
       </c>
       <c r="T29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U29" t="n">
         <v>0.0</v>
       </c>
       <c r="V29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W29" t="n">
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y29" t="n">
         <v>0.0</v>
       </c>
       <c r="Z29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB29" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
       </c>
       <c r="AD29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE29" t="n">
         <v>0.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG29" t="n">
         <v>6.0</v>
       </c>
       <c r="AH29" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="AI29" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="n">
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM29" t="n">
         <v>2.0</v>
       </c>
       <c r="AN29" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="AO29" t="n">
         <v>0.0</v>
@@ -4143,121 +4344,121 @@
         <v>1553423.0</v>
       </c>
       <c r="C30" t="n">
-        <v>16654.0</v>
+        <v>24777.0</v>
       </c>
       <c r="D30" t="n">
-        <v>1685.0</v>
+        <v>3418.0</v>
       </c>
       <c r="E30" t="s">
         <v>72</v>
       </c>
       <c r="F30" t="n">
-        <v>41294.0</v>
+        <v>61171.0</v>
       </c>
       <c r="G30" t="n">
-        <v>2658.0</v>
+        <v>3938.0</v>
       </c>
       <c r="H30" t="s">
         <v>101</v>
       </c>
       <c r="I30" t="n">
-        <v>264.0</v>
+        <v>295.0</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
       </c>
       <c r="L30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
       </c>
       <c r="N30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O30" t="n">
         <v>0.0</v>
       </c>
       <c r="P30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q30" t="n">
         <v>1.0</v>
       </c>
       <c r="R30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="S30" t="n">
         <v>0.0</v>
       </c>
       <c r="T30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U30" t="n">
         <v>0.0</v>
       </c>
       <c r="V30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W30" t="n">
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y30" t="n">
         <v>0.0</v>
       </c>
       <c r="Z30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA30" t="n">
-        <v>83.0</v>
+        <v>110.0</v>
       </c>
       <c r="AB30" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AC30" t="n">
         <v>0.0</v>
       </c>
       <c r="AD30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE30" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="AG30" t="n">
-        <v>129.0</v>
+        <v>145.0</v>
       </c>
       <c r="AH30" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="AI30" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK30" t="n">
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM30" t="n">
-        <v>39.0</v>
+        <v>22.0</v>
       </c>
       <c r="AN30" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="31">
@@ -4268,121 +4469,121 @@
         <v>551082.0</v>
       </c>
       <c r="C31" t="n">
-        <v>4340.0</v>
+        <v>6586.0</v>
       </c>
       <c r="D31" t="n">
-        <v>1238.0</v>
+        <v>2561.0</v>
       </c>
       <c r="E31" t="s">
         <v>72</v>
       </c>
       <c r="F31" t="n">
-        <v>13190.0</v>
+        <v>19145.0</v>
       </c>
       <c r="G31" t="n">
-        <v>2393.0</v>
+        <v>3474.0</v>
       </c>
       <c r="H31" t="s">
         <v>102</v>
       </c>
       <c r="I31" t="n">
-        <v>103.0</v>
+        <v>125.0</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
       </c>
       <c r="L31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O31" t="n">
         <v>0.0</v>
       </c>
       <c r="P31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q31" t="n">
         <v>0.0</v>
       </c>
       <c r="R31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S31" t="n">
         <v>0.0</v>
       </c>
       <c r="T31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U31" t="n">
         <v>0.0</v>
       </c>
       <c r="V31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W31" t="n">
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y31" t="n">
         <v>0.0</v>
       </c>
       <c r="Z31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA31" t="n">
-        <v>29.0</v>
+        <v>48.0</v>
       </c>
       <c r="AB31" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AC31" t="n">
         <v>0.0</v>
       </c>
       <c r="AD31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE31" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="AG31" t="n">
-        <v>54.0</v>
+        <v>62.0</v>
       </c>
       <c r="AH31" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="AI31" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK31" t="n">
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM31" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="AN31" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="32">
@@ -4393,121 +4594,121 @@
         <v>200096.0</v>
       </c>
       <c r="C32" t="n">
-        <v>1323.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D32" t="n">
-        <v>1039.0</v>
+        <v>2163.0</v>
       </c>
       <c r="E32" t="s">
         <v>72</v>
       </c>
       <c r="F32" t="n">
-        <v>3375.0</v>
+        <v>5008.0</v>
       </c>
       <c r="G32" t="n">
-        <v>1687.0</v>
+        <v>2503.0</v>
       </c>
       <c r="H32" t="s">
         <v>103</v>
       </c>
       <c r="I32" t="n">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="J32" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="K32" t="n">
         <v>0.0</v>
       </c>
       <c r="L32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M32" t="n">
         <v>0.0</v>
       </c>
       <c r="N32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O32" t="n">
         <v>0.0</v>
       </c>
       <c r="P32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q32" t="n">
         <v>0.0</v>
       </c>
       <c r="R32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S32" t="n">
         <v>0.0</v>
       </c>
       <c r="T32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
       </c>
       <c r="V32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W32" t="n">
         <v>0.0</v>
       </c>
       <c r="X32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y32" t="n">
         <v>0.0</v>
       </c>
       <c r="Z32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB32" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
       </c>
       <c r="AD32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE32" t="n">
         <v>0.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG32" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="AH32" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="AI32" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK32" t="n">
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM32" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN32" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -4518,121 +4719,121 @@
         <v>350986.0</v>
       </c>
       <c r="C33" t="n">
-        <v>3017.0</v>
+        <v>4566.0</v>
       </c>
       <c r="D33" t="n">
-        <v>1351.0</v>
+        <v>2788.0</v>
       </c>
       <c r="E33" t="s">
         <v>72</v>
       </c>
       <c r="F33" t="n">
-        <v>9815.0</v>
+        <v>14137.0</v>
       </c>
       <c r="G33" t="n">
-        <v>2796.0</v>
+        <v>4028.0</v>
       </c>
       <c r="H33" t="s">
         <v>104</v>
       </c>
       <c r="I33" t="n">
-        <v>81.0</v>
+        <v>93.0</v>
       </c>
       <c r="J33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K33" t="n">
         <v>0.0</v>
       </c>
       <c r="L33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
       </c>
       <c r="N33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O33" t="n">
         <v>0.0</v>
       </c>
       <c r="P33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
       </c>
       <c r="R33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S33" t="n">
         <v>0.0</v>
       </c>
       <c r="T33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U33" t="n">
         <v>0.0</v>
       </c>
       <c r="V33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W33" t="n">
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Y33" t="n">
         <v>0.0</v>
       </c>
       <c r="Z33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AA33" t="n">
-        <v>23.0</v>
+        <v>34.0</v>
       </c>
       <c r="AB33" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
       </c>
       <c r="AD33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE33" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="AG33" t="n">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="AH33" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="AI33" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK33" t="n">
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AM33" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="AN33" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>

--- a/tables/2022-06/sup_table_overview_Jun.xlsx
+++ b/tables/2022-06/sup_table_overview_Jun.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2022-06-01 to 2022-06-30" r:id="rId3" sheetId="1"/>
+    <sheet name="2022-06-05 to 2022-06-26" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="204">
   <si>
     <t>Population size</t>
   </si>
@@ -233,160 +233,151 @@
     <t>NA (NA-NA)</t>
   </si>
   <si>
-    <t>38.66</t>
+    <t>38.42</t>
+  </si>
+  <si>
+    <t>38.79</t>
+  </si>
+  <si>
+    <t>37.55</t>
+  </si>
+  <si>
+    <t>39.47</t>
+  </si>
+  <si>
+    <t>39.18</t>
+  </si>
+  <si>
+    <t>38.61</t>
+  </si>
+  <si>
+    <t>39.39</t>
   </si>
   <si>
     <t>38.40</t>
   </si>
   <si>
-    <t>37.34</t>
-  </si>
-  <si>
-    <t>39.06</t>
-  </si>
-  <si>
-    <t>38.18</t>
-  </si>
-  <si>
-    <t>39.40</t>
-  </si>
-  <si>
-    <t>39.87</t>
-  </si>
-  <si>
-    <t>39.53</t>
-  </si>
-  <si>
-    <t>32.31</t>
-  </si>
-  <si>
-    <t>30.85</t>
-  </si>
-  <si>
-    <t>41.46</t>
-  </si>
-  <si>
-    <t>22.78</t>
-  </si>
-  <si>
-    <t>28.67</t>
-  </si>
-  <si>
-    <t>30.37</t>
-  </si>
-  <si>
-    <t>38.02</t>
-  </si>
-  <si>
-    <t>36.22</t>
-  </si>
-  <si>
-    <t>41.92</t>
-  </si>
-  <si>
-    <t>38.26</t>
-  </si>
-  <si>
-    <t>43.58</t>
-  </si>
-  <si>
-    <t>15.62</t>
-  </si>
-  <si>
-    <t>43.64</t>
-  </si>
-  <si>
-    <t>44.76</t>
-  </si>
-  <si>
-    <t>40.82</t>
-  </si>
-  <si>
-    <t>46.85</t>
-  </si>
-  <si>
-    <t>28.40</t>
-  </si>
-  <si>
-    <t>44.05</t>
-  </si>
-  <si>
-    <t>48.18</t>
-  </si>
-  <si>
-    <t>43.38</t>
-  </si>
-  <si>
-    <t>45.12</t>
-  </si>
-  <si>
-    <t>38.63</t>
-  </si>
-  <si>
-    <t>43.17</t>
-  </si>
-  <si>
-    <t>37.02</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>1.1</t>
+    <t>28.55</t>
+  </si>
+  <si>
+    <t>30.45</t>
+  </si>
+  <si>
+    <t>41.33</t>
+  </si>
+  <si>
+    <t>22.88</t>
+  </si>
+  <si>
+    <t>27.17</t>
+  </si>
+  <si>
+    <t>30.22</t>
+  </si>
+  <si>
+    <t>37.81</t>
+  </si>
+  <si>
+    <t>36.27</t>
+  </si>
+  <si>
+    <t>41.37</t>
+  </si>
+  <si>
+    <t>36.61</t>
+  </si>
+  <si>
+    <t>42.59</t>
+  </si>
+  <si>
+    <t>16.74</t>
+  </si>
+  <si>
+    <t>43.40</t>
+  </si>
+  <si>
+    <t>44.55</t>
+  </si>
+  <si>
+    <t>43.97</t>
+  </si>
+  <si>
+    <t>45.28</t>
+  </si>
+  <si>
+    <t>29.28</t>
+  </si>
+  <si>
+    <t>43.51</t>
+  </si>
+  <si>
+    <t>47.23</t>
+  </si>
+  <si>
+    <t>42.45</t>
+  </si>
+  <si>
+    <t>45.06</t>
+  </si>
+  <si>
+    <t>37.22</t>
+  </si>
+  <si>
+    <t>41.93</t>
+  </si>
+  <si>
+    <t>35.61</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
   </si>
   <si>
     <t>1.3</t>
   </si>
   <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
     <t>1.5</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.0</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>&lt;0.1</t>
@@ -395,274 +386,244 @@
     <t>-</t>
   </si>
   <si>
-    <t>2.6 (0.1-13.5)</t>
-  </si>
-  <si>
-    <t>5.3 (0.1-26.0)</t>
-  </si>
-  <si>
-    <t>0.3 (0.0-1.6)</t>
-  </si>
-  <si>
-    <t>0.3 (0.0-1.9)</t>
-  </si>
-  <si>
-    <t>0.2 (0.0-1.2)</t>
-  </si>
-  <si>
-    <t>0.8 (0.0-4.6)</t>
-  </si>
-  <si>
-    <t>37.5 (35.0-40.0)</t>
-  </si>
-  <si>
-    <t>29.6 (25.4-33.9)</t>
-  </si>
-  <si>
-    <t>31.4 (26.2-37.0)</t>
-  </si>
-  <si>
-    <t>23.5 (16.2-32.2)</t>
-  </si>
-  <si>
-    <t>33.3 (20.4-48.4)</t>
-  </si>
-  <si>
-    <t>50.6 (44.0-57.2)</t>
-  </si>
-  <si>
-    <t>48.6 (41.8-55.5)</t>
+    <t>4.2 (0.1-21.1)</t>
+  </si>
+  <si>
+    <t>10.0 (0.3-44.5)</t>
+  </si>
+  <si>
+    <t>0.4 (0.0-2.1)</t>
+  </si>
+  <si>
+    <t>0.4 (0.0-2.2)</t>
+  </si>
+  <si>
+    <t>30.8 (28.2-33.6)</t>
+  </si>
+  <si>
+    <t>26.3 (21.9-31.1)</t>
+  </si>
+  <si>
+    <t>28.8 (23.2-34.9)</t>
+  </si>
+  <si>
+    <t>16.7 (9.8-25.6)</t>
+  </si>
+  <si>
+    <t>36.4 (20.4-54.9)</t>
+  </si>
+  <si>
+    <t>35.8 (28.4-43.7)</t>
+  </si>
+  <si>
+    <t>36.5 (29.0-44.5)</t>
+  </si>
+  <si>
+    <t>35.7 (29.6-42.2)</t>
+  </si>
+  <si>
+    <t>41.4 (23.5-61.1)</t>
+  </si>
+  <si>
+    <t>37.0 (26.6-48.5)</t>
+  </si>
+  <si>
+    <t>34.5 (26.0-43.7)</t>
+  </si>
+  <si>
+    <t>22.2 (2.8-60.0)</t>
+  </si>
+  <si>
+    <t>25.0 (9.8-46.7)</t>
+  </si>
+  <si>
+    <t>20.0 (2.5-55.6)</t>
+  </si>
+  <si>
+    <t>100.0 (2.5-100.0)</t>
+  </si>
+  <si>
+    <t>23.1 (5.0-53.8)</t>
+  </si>
+  <si>
+    <t>32.1 (26.5-38.1)</t>
+  </si>
+  <si>
+    <t>11.1 (0.3-48.2)</t>
+  </si>
+  <si>
+    <t>33.7 (27.9-40.0)</t>
+  </si>
+  <si>
+    <t>30.9 (21.7-41.2)</t>
+  </si>
+  <si>
+    <t>30.0 (11.9-54.3)</t>
+  </si>
+  <si>
+    <t>31.1 (20.8-42.9)</t>
+  </si>
+  <si>
+    <t>5.7 (4.4-7.2)</t>
+  </si>
+  <si>
+    <t>6.4 (4.2-9.4)</t>
+  </si>
+  <si>
+    <t>6.6 (3.8-10.5)</t>
+  </si>
+  <si>
+    <t>7.3 (3.0-14.4)</t>
+  </si>
+  <si>
+    <t>3.0 (0.1-15.8)</t>
+  </si>
+  <si>
+    <t>8.0 (4.3-13.3)</t>
+  </si>
+  <si>
+    <t>8.2 (4.4-13.6)</t>
+  </si>
+  <si>
+    <t>4.6 (2.3-8.1)</t>
+  </si>
+  <si>
+    <t>2.5 (0.3-8.6)</t>
+  </si>
+  <si>
+    <t>7.6 (3.5-13.9)</t>
+  </si>
+  <si>
+    <t>4.6 (2.4-7.9)</t>
+  </si>
+  <si>
+    <t>4.9 (2.5-8.4)</t>
+  </si>
+  <si>
+    <t>5.3 (1.7-12.0)</t>
+  </si>
+  <si>
+    <t>6.8 (2.2-15.1)</t>
+  </si>
+  <si>
+    <t>56.9 (54.1-59.8)</t>
+  </si>
+  <si>
+    <t>64.6 (59.5-69.5)</t>
+  </si>
+  <si>
+    <t>63.4 (57.0-69.4)</t>
+  </si>
+  <si>
+    <t>72.9 (62.9-81.5)</t>
+  </si>
+  <si>
+    <t>48.5 (30.8-66.5)</t>
+  </si>
+  <si>
+    <t>50.0 (42.1-57.9)</t>
+  </si>
+  <si>
+    <t>49.1 (41.1-57.1)</t>
+  </si>
+  <si>
+    <t>100.0 (15.8-100.0)</t>
+  </si>
+  <si>
+    <t>51.7 (45.1-58.2)</t>
+  </si>
+  <si>
+    <t>55.2 (35.7-73.6)</t>
+  </si>
+  <si>
+    <t>51.9 (40.5-63.1)</t>
+  </si>
+  <si>
+    <t>49.6 (40.3-58.9)</t>
+  </si>
+  <si>
+    <t>66.7 (29.9-92.5)</t>
+  </si>
+  <si>
+    <t>50.0 (29.1-70.9)</t>
+  </si>
+  <si>
+    <t>60.0 (26.2-87.8)</t>
+  </si>
+  <si>
+    <t>46.2 (19.2-74.9)</t>
+  </si>
+  <si>
+    <t>53.8 (47.6-60.0)</t>
   </si>
   <si>
     <t>83.3 (35.9-99.6)</t>
   </si>
   <si>
-    <t>77.8 (40.0-97.2)</t>
-  </si>
-  <si>
-    <t>39.0 (33.1-45.0)</t>
-  </si>
-  <si>
-    <t>48.7 (32.4-65.2)</t>
-  </si>
-  <si>
-    <t>40.2 (30.1-51.0)</t>
-  </si>
-  <si>
-    <t>35.9 (27.7-44.7)</t>
-  </si>
-  <si>
-    <t>30.0 (6.7-65.2)</t>
-  </si>
-  <si>
-    <t>35.9 (21.2-52.8)</t>
-  </si>
-  <si>
-    <t>36.8 (16.3-61.6)</t>
-  </si>
-  <si>
-    <t>100.0 (2.5-100.0)</t>
-  </si>
-  <si>
-    <t>27.8 (9.7-53.5)</t>
-  </si>
-  <si>
-    <t>39.5 (34.2-44.9)</t>
-  </si>
-  <si>
-    <t>75.0 (19.4-99.4)</t>
-  </si>
-  <si>
-    <t>57.9 (33.5-79.7)</t>
-  </si>
-  <si>
-    <t>75.0 (34.9-96.8)</t>
-  </si>
-  <si>
-    <t>20.0 (2.5-55.6)</t>
-  </si>
-  <si>
-    <t>37.3 (31.8-43.1)</t>
-  </si>
-  <si>
-    <t>38.4 (29.8-47.5)</t>
-  </si>
-  <si>
-    <t>43.8 (26.4-62.3)</t>
-  </si>
-  <si>
-    <t>36.6 (26.8-47.2)</t>
-  </si>
-  <si>
-    <t>5.8 (4.7-7.1)</t>
-  </si>
-  <si>
-    <t>6.4 (4.4-9.0)</t>
-  </si>
-  <si>
-    <t>6.7 (4.1-10.1)</t>
-  </si>
-  <si>
-    <t>6.7 (2.9-12.8)</t>
-  </si>
-  <si>
-    <t>4.2 (0.5-14.3)</t>
-  </si>
-  <si>
-    <t>6.4 (3.6-10.4)</t>
-  </si>
-  <si>
-    <t>6.9 (3.9-11.1)</t>
-  </si>
-  <si>
-    <t>4.4 (2.3-7.6)</t>
-  </si>
-  <si>
-    <t>2.2 (0.3-7.6)</t>
-  </si>
-  <si>
-    <t>7.6 (3.7-13.6)</t>
-  </si>
-  <si>
-    <t>5.6 (3.4-8.7)</t>
-  </si>
-  <si>
-    <t>10.5 (1.3-33.1)</t>
-  </si>
-  <si>
-    <t>5.8 (3.4-9.1)</t>
-  </si>
-  <si>
-    <t>6.4 (2.8-12.2)</t>
-  </si>
-  <si>
-    <t>8.6 (3.8-16.2)</t>
-  </si>
-  <si>
-    <t>50.9 (48.3-53.5)</t>
-  </si>
-  <si>
-    <t>60.8 (56.2-65.3)</t>
-  </si>
-  <si>
-    <t>60.2 (54.4-65.8)</t>
-  </si>
-  <si>
-    <t>64.7 (55.4-73.2)</t>
-  </si>
-  <si>
-    <t>54.2 (39.2-68.6)</t>
-  </si>
-  <si>
-    <t>38.2 (31.9-44.8)</t>
-  </si>
-  <si>
-    <t>39.4 (32.9-46.3)</t>
+    <t>52.4 (46.0-58.8)</t>
+  </si>
+  <si>
+    <t>57.4 (46.8-67.6)</t>
+  </si>
+  <si>
+    <t>65.0 (40.8-84.6)</t>
+  </si>
+  <si>
+    <t>55.4 (43.4-67.0)</t>
+  </si>
+  <si>
+    <t>6.4 (5.0-7.9)</t>
+  </si>
+  <si>
+    <t>2.7 (1.3-4.9)</t>
+  </si>
+  <si>
+    <t>1.2 (0.3-3.6)</t>
+  </si>
+  <si>
+    <t>3.1 (0.6-8.9)</t>
+  </si>
+  <si>
+    <t>12.1 (3.4-28.2)</t>
+  </si>
+  <si>
+    <t>6.2 (3.0-11.1)</t>
+  </si>
+  <si>
+    <t>6.3 (3.1-11.3)</t>
+  </si>
+  <si>
+    <t>8.0 (4.9-12.2)</t>
+  </si>
+  <si>
+    <t>3.4 (0.1-17.8)</t>
+  </si>
+  <si>
+    <t>8.6 (3.5-17.0)</t>
+  </si>
+  <si>
+    <t>8.4 (4.1-14.9)</t>
+  </si>
+  <si>
+    <t>20.8 (7.1-42.2)</t>
+  </si>
+  <si>
+    <t>30.8 (9.1-61.4)</t>
+  </si>
+  <si>
+    <t>9.2 (6.0-13.3)</t>
   </si>
   <si>
     <t>16.7 (0.4-64.1)</t>
   </si>
   <si>
-    <t>22.2 (2.8-60.0)</t>
-  </si>
-  <si>
-    <t>49.3 (43.2-55.4)</t>
-  </si>
-  <si>
-    <t>50.0 (39.4-60.6)</t>
-  </si>
-  <si>
-    <t>48.1 (39.3-57.0)</t>
-  </si>
-  <si>
-    <t>60.0 (26.2-87.8)</t>
-  </si>
-  <si>
-    <t>41.0 (25.6-57.9)</t>
-  </si>
-  <si>
-    <t>50.0 (26.0-74.0)</t>
-  </si>
-  <si>
-    <t>47.2 (41.7-52.7)</t>
-  </si>
-  <si>
-    <t>25.0 (0.6-80.6)</t>
-  </si>
-  <si>
-    <t>26.3 (9.1-51.2)</t>
-  </si>
-  <si>
-    <t>25.0 (3.2-65.1)</t>
-  </si>
-  <si>
-    <t>49.2 (43.3-55.0)</t>
-  </si>
-  <si>
-    <t>49.6 (40.5-58.7)</t>
-  </si>
-  <si>
-    <t>53.1 (34.7-70.9)</t>
-  </si>
-  <si>
-    <t>48.4 (37.9-59.0)</t>
-  </si>
-  <si>
-    <t>5.7 (4.5-6.9)</t>
-  </si>
-  <si>
-    <t>3.0 (1.6-5.0)</t>
-  </si>
-  <si>
-    <t>1.7 (0.5-3.9)</t>
-  </si>
-  <si>
-    <t>4.2 (1.4-9.5)</t>
-  </si>
-  <si>
-    <t>8.3 (2.3-20.0)</t>
-  </si>
-  <si>
-    <t>4.7 (2.4-8.3)</t>
-  </si>
-  <si>
-    <t>5.0 (2.5-8.8)</t>
-  </si>
-  <si>
-    <t>7.4 (4.5-11.1)</t>
-  </si>
-  <si>
-    <t>7.6 (3.1-15.1)</t>
-  </si>
-  <si>
-    <t>8.4 (4.3-14.5)</t>
-  </si>
-  <si>
-    <t>10.0 (0.3-44.5)</t>
-  </si>
-  <si>
-    <t>17.9 (7.5-33.5)</t>
-  </si>
-  <si>
-    <t>15.8 (3.4-39.6)</t>
-  </si>
-  <si>
-    <t>22.2 (6.4-47.6)</t>
-  </si>
-  <si>
-    <t>7.4 (4.9-10.8)</t>
-  </si>
-  <si>
-    <t>7.5 (4.7-11.1)</t>
-  </si>
-  <si>
-    <t>5.6 (2.3-11.2)</t>
-  </si>
-  <si>
-    <t>3.1 (0.1-16.2)</t>
-  </si>
-  <si>
-    <t>6.5 (2.4-13.5)</t>
+    <t>8.5 (5.4-12.8)</t>
+  </si>
+  <si>
+    <t>6.4 (2.4-13.4)</t>
+  </si>
+  <si>
+    <t>5.0 (0.1-24.9)</t>
   </si>
 </sst>
 </file>
@@ -844,25 +805,25 @@
         <v>8670300.0</v>
       </c>
       <c r="C2" t="n">
-        <v>106512.0</v>
+        <v>70777.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2632.0</v>
+        <v>1283.0</v>
       </c>
       <c r="E2" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="n">
-        <v>298980.0</v>
+        <v>200406.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3448.0</v>
+        <v>2311.0</v>
       </c>
       <c r="H2" t="s">
         <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>1503.0</v>
+        <v>1180.0</v>
       </c>
       <c r="J2" t="s">
         <v>105</v>
@@ -871,94 +832,94 @@
         <v>1.0</v>
       </c>
       <c r="L2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
       </c>
       <c r="N2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O2" t="n">
         <v>0.0</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q2" t="n">
         <v>1.0</v>
       </c>
       <c r="R2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
       </c>
       <c r="T2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
       </c>
       <c r="V2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W2" t="n">
         <v>0.0</v>
       </c>
       <c r="X2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AA2" t="n">
-        <v>563.0</v>
+        <v>364.0</v>
       </c>
       <c r="AB2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AC2" t="n">
         <v>0.0</v>
       </c>
       <c r="AD2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE2" t="n">
-        <v>87.0</v>
+        <v>67.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AG2" t="n">
-        <v>765.0</v>
+        <v>672.0</v>
       </c>
       <c r="AH2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="AI2" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK2" t="n">
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM2" t="n">
-        <v>85.0</v>
+        <v>75.0</v>
       </c>
       <c r="AN2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="AO2" t="n">
-        <v>62.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="3">
@@ -969,25 +930,25 @@
         <v>1845502.0</v>
       </c>
       <c r="C3" t="n">
-        <v>26087.0</v>
+        <v>17314.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3029.0</v>
+        <v>1474.0</v>
       </c>
       <c r="E3" t="s">
         <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>74351.0</v>
+        <v>48927.0</v>
       </c>
       <c r="G3" t="n">
-        <v>4029.0</v>
+        <v>2651.0</v>
       </c>
       <c r="H3" t="s">
         <v>74</v>
       </c>
       <c r="I3" t="n">
-        <v>467.0</v>
+        <v>373.0</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -996,94 +957,94 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
       </c>
       <c r="N3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O3" t="n">
         <v>0.0</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0</v>
       </c>
       <c r="R3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S3" t="n">
         <v>0.0</v>
       </c>
       <c r="T3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U3" t="n">
         <v>0.0</v>
       </c>
       <c r="V3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W3" t="n">
         <v>0.0</v>
       </c>
       <c r="X3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO3" t="n">
         <v>1.0</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>138.0</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>284.0</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1094,25 +1055,25 @@
         <v>506343.0</v>
       </c>
       <c r="C4" t="n">
-        <v>8803.0</v>
+        <v>5661.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3725.0</v>
+        <v>1757.0</v>
       </c>
       <c r="E4" t="s">
         <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>26282.0</v>
+        <v>16861.0</v>
       </c>
       <c r="G4" t="n">
-        <v>5191.0</v>
+        <v>3330.0</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" t="n">
-        <v>299.0</v>
+        <v>243.0</v>
       </c>
       <c r="J4" t="s">
         <v>107</v>
@@ -1121,94 +1082,94 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
       </c>
       <c r="N4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O4" t="n">
         <v>0.0</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0</v>
       </c>
       <c r="R4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S4" t="n">
         <v>0.0</v>
       </c>
       <c r="T4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U4" t="n">
         <v>0.0</v>
       </c>
       <c r="V4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W4" t="n">
         <v>0.0</v>
       </c>
       <c r="X4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y4" t="n">
         <v>0.0</v>
       </c>
       <c r="Z4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.0</v>
+        <v>70.0</v>
       </c>
       <c r="AB4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AC4" t="n">
         <v>0.0</v>
       </c>
       <c r="AD4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE4" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AG4" t="n">
-        <v>180.0</v>
+        <v>154.0</v>
       </c>
       <c r="AH4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AI4" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK4" t="n">
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="AN4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -1219,25 +1180,25 @@
         <v>814762.0</v>
       </c>
       <c r="C5" t="n">
-        <v>11278.0</v>
+        <v>7523.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2966.0</v>
+        <v>1451.0</v>
       </c>
       <c r="E5" t="s">
         <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>31632.0</v>
+        <v>20915.0</v>
       </c>
       <c r="G5" t="n">
-        <v>3882.0</v>
+        <v>2567.0</v>
       </c>
       <c r="H5" t="s">
         <v>76</v>
       </c>
       <c r="I5" t="n">
-        <v>119.0</v>
+        <v>96.0</v>
       </c>
       <c r="J5" t="s">
         <v>108</v>
@@ -1246,91 +1207,91 @@
         <v>0.0</v>
       </c>
       <c r="L5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M5" t="n">
         <v>0.0</v>
       </c>
       <c r="N5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O5" t="n">
         <v>0.0</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0</v>
       </c>
       <c r="R5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S5" t="n">
         <v>0.0</v>
       </c>
       <c r="T5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U5" t="n">
         <v>0.0</v>
       </c>
       <c r="V5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W5" t="n">
         <v>0.0</v>
       </c>
       <c r="X5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AA5" t="n">
-        <v>28.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AC5" t="n">
         <v>0.0</v>
       </c>
       <c r="AD5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE5" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AG5" t="n">
-        <v>77.0</v>
+        <v>70.0</v>
       </c>
       <c r="AH5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AI5" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK5" t="n">
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM5" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="AN5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="AO5" t="n">
         <v>1.0</v>
@@ -1344,118 +1305,118 @@
         <v>348503.0</v>
       </c>
       <c r="C6" t="n">
-        <v>3669.0</v>
+        <v>2588.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2256.0</v>
+        <v>1167.0</v>
       </c>
       <c r="E6" t="s">
         <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>10117.0</v>
+        <v>6994.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2903.0</v>
+        <v>2007.0</v>
       </c>
       <c r="H6" t="s">
         <v>77</v>
       </c>
       <c r="I6" t="n">
-        <v>48.0</v>
+        <v>33.0</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" t="n">
         <v>0.0</v>
       </c>
       <c r="L6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M6" t="n">
         <v>0.0</v>
       </c>
       <c r="N6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O6" t="n">
         <v>0.0</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0</v>
       </c>
       <c r="R6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
       </c>
       <c r="T6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
       </c>
       <c r="V6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W6" t="n">
         <v>0.0</v>
       </c>
       <c r="X6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y6" t="n">
         <v>0.0</v>
       </c>
       <c r="Z6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG6" t="n">
         <v>16.0</v>
       </c>
-      <c r="AB6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>26.0</v>
-      </c>
       <c r="AH6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AI6" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK6" t="n">
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM6" t="n">
         <v>4.0</v>
       </c>
       <c r="AN6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AO6" t="n">
         <v>0.0</v>
@@ -1469,121 +1430,121 @@
         <v>1442337.0</v>
       </c>
       <c r="C7" t="n">
-        <v>15488.0</v>
+        <v>10178.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2301.0</v>
+        <v>1109.0</v>
       </c>
       <c r="E7" t="s">
         <v>72</v>
       </c>
       <c r="F7" t="n">
-        <v>41147.0</v>
+        <v>27819.0</v>
       </c>
       <c r="G7" t="n">
-        <v>2853.0</v>
+        <v>1929.0</v>
       </c>
       <c r="H7" t="s">
         <v>78</v>
       </c>
       <c r="I7" t="n">
-        <v>233.0</v>
+        <v>162.0</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K7" t="n">
         <v>0.0</v>
       </c>
       <c r="L7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
       </c>
       <c r="N7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O7" t="n">
         <v>0.0</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0</v>
       </c>
       <c r="R7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S7" t="n">
         <v>0.0</v>
       </c>
       <c r="T7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U7" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W7" t="n">
         <v>0.0</v>
       </c>
       <c r="X7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y7" t="n">
         <v>0.0</v>
       </c>
       <c r="Z7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA7" t="n">
-        <v>118.0</v>
+        <v>58.0</v>
       </c>
       <c r="AB7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AC7" t="n">
         <v>0.0</v>
       </c>
       <c r="AD7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE7" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="AG7" t="n">
-        <v>89.0</v>
+        <v>81.0</v>
       </c>
       <c r="AH7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AI7" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK7" t="n">
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="AN7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1594,118 +1555,118 @@
         <v>1043132.0</v>
       </c>
       <c r="C8" t="n">
-        <v>12019.0</v>
+        <v>7959.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2469.0</v>
+        <v>1199.0</v>
       </c>
       <c r="E8" t="s">
         <v>72</v>
       </c>
       <c r="F8" t="n">
-        <v>31648.0</v>
+        <v>21394.0</v>
       </c>
       <c r="G8" t="n">
-        <v>3034.0</v>
+        <v>2051.0</v>
       </c>
       <c r="H8" t="s">
         <v>79</v>
       </c>
       <c r="I8" t="n">
-        <v>218.0</v>
+        <v>159.0</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K8" t="n">
         <v>0.0</v>
       </c>
       <c r="L8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M8" t="n">
         <v>0.0</v>
       </c>
       <c r="N8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O8" t="n">
         <v>0.0</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0</v>
       </c>
       <c r="R8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S8" t="n">
         <v>0.0</v>
       </c>
       <c r="T8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
       </c>
       <c r="V8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W8" t="n">
         <v>0.0</v>
       </c>
       <c r="X8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y8" t="n">
         <v>0.0</v>
       </c>
       <c r="Z8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA8" t="n">
-        <v>106.0</v>
+        <v>58.0</v>
       </c>
       <c r="AB8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AC8" t="n">
         <v>0.0</v>
       </c>
       <c r="AD8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE8" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AG8" t="n">
-        <v>86.0</v>
+        <v>78.0</v>
       </c>
       <c r="AH8" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="AI8" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK8" t="n">
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM8" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="AN8" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="AO8" t="n">
         <v>2.0</v>
@@ -1719,25 +1680,25 @@
         <v>325496.0</v>
       </c>
       <c r="C9" t="n">
-        <v>2790.0</v>
+        <v>1800.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1837.0</v>
+        <v>869.0</v>
       </c>
       <c r="E9" t="s">
         <v>72</v>
       </c>
       <c r="F9" t="n">
-        <v>7286.0</v>
+        <v>4870.0</v>
       </c>
       <c r="G9" t="n">
-        <v>2238.0</v>
+        <v>1496.0</v>
       </c>
       <c r="H9" t="s">
         <v>80</v>
       </c>
       <c r="I9" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" t="s">
         <v>111</v>
@@ -1746,94 +1707,94 @@
         <v>0.0</v>
       </c>
       <c r="L9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>0.0</v>
       </c>
       <c r="N9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O9" t="n">
         <v>0.0</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0</v>
       </c>
       <c r="R9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S9" t="n">
         <v>0.0</v>
       </c>
       <c r="T9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
       </c>
       <c r="V9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W9" t="n">
         <v>0.0</v>
       </c>
       <c r="X9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="n">
         <v>0.0</v>
       </c>
       <c r="Z9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="AC9" t="n">
         <v>0.0</v>
       </c>
       <c r="AD9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE9" t="n">
         <v>0.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="n">
         <v>1.0</v>
       </c>
       <c r="AH9" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="AI9" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK9" t="n">
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM9" t="n">
         <v>0.0</v>
       </c>
       <c r="AN9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -1844,118 +1805,118 @@
         <v>73709.0</v>
       </c>
       <c r="C10" t="n">
-        <v>679.0</v>
+        <v>419.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1974.0</v>
+        <v>893.0</v>
       </c>
       <c r="E10" t="s">
         <v>72</v>
       </c>
       <c r="F10" t="n">
-        <v>2213.0</v>
+        <v>1555.0</v>
       </c>
       <c r="G10" t="n">
-        <v>3002.0</v>
+        <v>2110.0</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K10" t="n">
         <v>0.0</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O10" t="n">
         <v>0.0</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0</v>
       </c>
       <c r="R10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S10" t="n">
         <v>0.0</v>
       </c>
       <c r="T10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U10" t="n">
         <v>0.0</v>
       </c>
       <c r="V10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W10" t="n">
         <v>0.0</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y10" t="n">
         <v>0.0</v>
       </c>
       <c r="Z10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="AC10" t="n">
         <v>0.0</v>
       </c>
       <c r="AD10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE10" t="n">
         <v>0.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG10" t="n">
         <v>2.0</v>
       </c>
       <c r="AH10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AI10" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK10" t="n">
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM10" t="n">
         <v>0.0</v>
       </c>
       <c r="AN10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AO10" t="n">
         <v>0.0</v>
@@ -1969,25 +1930,25 @@
         <v>1459238.0</v>
       </c>
       <c r="C11" t="n">
-        <v>18139.0</v>
+        <v>12049.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2664.0</v>
+        <v>1298.0</v>
       </c>
       <c r="E11" t="s">
         <v>72</v>
       </c>
       <c r="F11" t="n">
-        <v>62728.0</v>
+        <v>41898.0</v>
       </c>
       <c r="G11" t="n">
-        <v>4299.0</v>
+        <v>2871.0</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="n">
-        <v>272.0</v>
+        <v>238.0</v>
       </c>
       <c r="J11" t="s">
         <v>110</v>
@@ -1996,94 +1957,94 @@
         <v>0.0</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>0.0</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O11" t="n">
         <v>0.0</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q11" t="n">
         <v>0.0</v>
       </c>
       <c r="R11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S11" t="n">
         <v>0.0</v>
       </c>
       <c r="T11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W11" t="n">
         <v>0.0</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="n">
         <v>0.0</v>
       </c>
       <c r="Z11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA11" t="n">
-        <v>106.0</v>
+        <v>85.0</v>
       </c>
       <c r="AB11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AC11" t="n">
         <v>0.0</v>
       </c>
       <c r="AD11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE11" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AG11" t="n">
-        <v>134.0</v>
+        <v>123.0</v>
       </c>
       <c r="AH11" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="AI11" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK11" t="n">
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM11" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="AN11" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="AO11" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
@@ -2094,121 +2055,121 @@
         <v>694072.0</v>
       </c>
       <c r="C12" t="n">
-        <v>7464.0</v>
+        <v>4958.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2304.0</v>
+        <v>1123.0</v>
       </c>
       <c r="E12" t="s">
         <v>72</v>
       </c>
       <c r="F12" t="n">
-        <v>18228.0</v>
+        <v>12109.0</v>
       </c>
       <c r="G12" t="n">
-        <v>2626.0</v>
+        <v>1745.0</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="n">
-        <v>39.0</v>
+        <v>29.0</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K12" t="n">
         <v>0.0</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>0.0</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O12" t="n">
         <v>0.0</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q12" t="n">
         <v>0.0</v>
       </c>
       <c r="R12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S12" t="n">
         <v>0.0</v>
       </c>
       <c r="T12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U12" t="n">
         <v>0.0</v>
       </c>
       <c r="V12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W12" t="n">
         <v>0.0</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="n">
         <v>0.0</v>
       </c>
       <c r="Z12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AC12" t="n">
         <v>0.0</v>
       </c>
       <c r="AD12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE12" t="n">
         <v>0.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="AH12" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="AI12" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK12" t="n">
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM12" t="n">
         <v>1.0</v>
       </c>
       <c r="AN12" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
@@ -2219,118 +2180,118 @@
         <v>290969.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4204.0</v>
+        <v>2808.0</v>
       </c>
       <c r="D13" t="n">
-        <v>3096.0</v>
+        <v>1517.0</v>
       </c>
       <c r="E13" t="s">
         <v>72</v>
       </c>
       <c r="F13" t="n">
-        <v>19331.0</v>
+        <v>12890.0</v>
       </c>
       <c r="G13" t="n">
-        <v>6644.0</v>
+        <v>4430.0</v>
       </c>
       <c r="H13" t="s">
         <v>84</v>
       </c>
       <c r="I13" t="n">
-        <v>92.0</v>
+        <v>81.0</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K13" t="n">
         <v>0.0</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
         <v>0.0</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O13" t="n">
         <v>0.0</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q13" t="n">
         <v>0.0</v>
       </c>
       <c r="R13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S13" t="n">
         <v>0.0</v>
       </c>
       <c r="T13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U13" t="n">
         <v>0.0</v>
       </c>
       <c r="V13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W13" t="n">
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y13" t="n">
         <v>0.0</v>
       </c>
       <c r="Z13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA13" t="n">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
       <c r="AB13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AC13" t="n">
         <v>0.0</v>
       </c>
       <c r="AD13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE13" t="n">
         <v>2.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="n">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
       <c r="AH13" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="AI13" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK13" t="n">
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM13" t="n">
         <v>7.0</v>
       </c>
       <c r="AN13" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AO13" t="n">
         <v>4.0</v>
@@ -2344,121 +2305,121 @@
         <v>196735.0</v>
       </c>
       <c r="C14" t="n">
-        <v>3485.0</v>
+        <v>2300.0</v>
       </c>
       <c r="D14" t="n">
-        <v>3796.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E14" t="s">
         <v>72</v>
       </c>
       <c r="F14" t="n">
-        <v>14765.0</v>
+        <v>9979.0</v>
       </c>
       <c r="G14" t="n">
-        <v>7505.0</v>
+        <v>5072.0</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
       </c>
       <c r="I14" t="n">
-        <v>131.0</v>
+        <v>119.0</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K14" t="n">
         <v>0.0</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O14" t="n">
         <v>0.0</v>
       </c>
       <c r="P14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q14" t="n">
         <v>0.0</v>
       </c>
       <c r="R14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S14" t="n">
         <v>0.0</v>
       </c>
       <c r="T14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
       </c>
       <c r="V14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W14" t="n">
         <v>0.0</v>
       </c>
       <c r="X14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y14" t="n">
         <v>0.0</v>
       </c>
       <c r="Z14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA14" t="n">
-        <v>47.0</v>
+        <v>41.0</v>
       </c>
       <c r="AB14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AC14" t="n">
         <v>0.0</v>
       </c>
       <c r="AD14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM14" t="n">
         <v>10.0</v>
       </c>
-      <c r="AF14" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>11.0</v>
-      </c>
       <c r="AN14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="AO14" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
@@ -2469,118 +2430,118 @@
         <v>277462.0</v>
       </c>
       <c r="C15" t="n">
-        <v>2986.0</v>
+        <v>1983.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2306.0</v>
+        <v>1123.0</v>
       </c>
       <c r="E15" t="s">
         <v>72</v>
       </c>
       <c r="F15" t="n">
-        <v>10404.0</v>
+        <v>6920.0</v>
       </c>
       <c r="G15" t="n">
-        <v>3750.0</v>
+        <v>2494.0</v>
       </c>
       <c r="H15" t="s">
         <v>86</v>
       </c>
       <c r="I15" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K15" t="n">
         <v>0.0</v>
       </c>
       <c r="L15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M15" t="n">
         <v>0.0</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O15" t="n">
         <v>0.0</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0</v>
       </c>
       <c r="R15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S15" t="n">
         <v>0.0</v>
       </c>
       <c r="T15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
       </c>
       <c r="V15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W15" t="n">
         <v>0.0</v>
       </c>
       <c r="X15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y15" t="n">
         <v>0.0</v>
       </c>
       <c r="Z15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AC15" t="n">
         <v>0.0</v>
       </c>
       <c r="AD15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE15" t="n">
         <v>0.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG15" t="n">
         <v>6.0</v>
       </c>
       <c r="AH15" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AI15" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK15" t="n">
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM15" t="n">
         <v>1.0</v>
       </c>
       <c r="AN15" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="AO15" t="n">
         <v>0.0</v>
@@ -2594,25 +2555,25 @@
         <v>825745.0</v>
       </c>
       <c r="C16" t="n">
-        <v>7352.0</v>
+        <v>4939.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1908.0</v>
+        <v>940.0</v>
       </c>
       <c r="E16" t="s">
         <v>72</v>
       </c>
       <c r="F16" t="n">
-        <v>20652.0</v>
+        <v>14003.0</v>
       </c>
       <c r="G16" t="n">
-        <v>2501.0</v>
+        <v>1696.0</v>
       </c>
       <c r="H16" t="s">
         <v>87</v>
       </c>
       <c r="I16" t="n">
-        <v>39.0</v>
+        <v>24.0</v>
       </c>
       <c r="J16" t="s">
         <v>112</v>
@@ -2621,91 +2582,91 @@
         <v>1.0</v>
       </c>
       <c r="L16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M16" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O16" t="n">
         <v>0.0</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
       </c>
       <c r="R16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S16" t="n">
         <v>0.0</v>
       </c>
       <c r="T16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
       </c>
       <c r="V16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W16" t="n">
         <v>0.0</v>
       </c>
       <c r="X16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y16" t="n">
         <v>0.0</v>
       </c>
       <c r="Z16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA16" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AC16" t="n">
         <v>0.0</v>
       </c>
       <c r="AD16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AG16" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="AH16" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AI16" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK16" t="n">
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM16" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="AN16" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="n">
         <v>2.0</v>
@@ -2719,118 +2680,118 @@
         <v>416347.0</v>
       </c>
       <c r="C17" t="n">
-        <v>3733.0</v>
+        <v>2555.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1921.0</v>
+        <v>964.0</v>
       </c>
       <c r="E17" t="s">
         <v>72</v>
       </c>
       <c r="F17" t="n">
-        <v>11109.0</v>
+        <v>7593.0</v>
       </c>
       <c r="G17" t="n">
-        <v>2668.0</v>
+        <v>1824.0</v>
       </c>
       <c r="H17" t="s">
         <v>88</v>
       </c>
       <c r="I17" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K17" t="n">
         <v>1.0</v>
       </c>
       <c r="L17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M17" t="n">
         <v>0.0</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O17" t="n">
         <v>0.0</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q17" t="n">
         <v>0.0</v>
       </c>
       <c r="R17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S17" t="n">
         <v>0.0</v>
       </c>
       <c r="T17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
       </c>
       <c r="V17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W17" t="n">
         <v>0.0</v>
       </c>
       <c r="X17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y17" t="n">
         <v>0.0</v>
       </c>
       <c r="Z17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB17" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AC17" t="n">
         <v>0.0</v>
       </c>
       <c r="AD17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM17" t="n">
         <v>1.0</v>
       </c>
-      <c r="AF17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>3.0</v>
-      </c>
       <c r="AN17" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="AO17" t="n">
         <v>1.0</v>
@@ -2844,19 +2805,19 @@
         <v>43520.0</v>
       </c>
       <c r="C18" t="n">
-        <v>325.0</v>
+        <v>222.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1600.0</v>
+        <v>802.0</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
       </c>
       <c r="F18" t="n">
-        <v>823.0</v>
+        <v>568.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1891.0</v>
+        <v>1305.0</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -2865,97 +2826,97 @@
         <v>1.0</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K18" t="n">
         <v>0.0</v>
       </c>
       <c r="L18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O18" t="n">
         <v>0.0</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q18" t="n">
         <v>0.0</v>
       </c>
       <c r="R18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S18" t="n">
         <v>0.0</v>
       </c>
       <c r="T18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
       </c>
       <c r="V18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W18" t="n">
         <v>0.0</v>
       </c>
       <c r="X18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y18" t="n">
         <v>0.0</v>
       </c>
       <c r="Z18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA18" t="n">
         <v>1.0</v>
       </c>
       <c r="AB18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="AC18" t="n">
         <v>0.0</v>
       </c>
       <c r="AD18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE18" t="n">
         <v>0.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG18" t="n">
         <v>0.0</v>
       </c>
       <c r="AH18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI18" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK18" t="n">
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM18" t="n">
         <v>0.0</v>
       </c>
       <c r="AN18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AO18" t="n">
         <v>0.0</v>
@@ -2969,19 +2930,19 @@
         <v>38108.0</v>
       </c>
       <c r="C19" t="n">
-        <v>271.0</v>
+        <v>179.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1524.0</v>
+        <v>738.0</v>
       </c>
       <c r="E19" t="s">
         <v>72</v>
       </c>
       <c r="F19" t="n">
-        <v>758.0</v>
+        <v>519.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1989.0</v>
+        <v>1362.0</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -2990,97 +2951,97 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K19" t="n">
         <v>0.0</v>
       </c>
       <c r="L19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M19" t="n">
         <v>0.0</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O19" t="n">
         <v>0.0</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q19" t="n">
         <v>0.0</v>
       </c>
       <c r="R19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S19" t="n">
         <v>0.0</v>
       </c>
       <c r="T19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
       </c>
       <c r="V19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W19" t="n">
         <v>0.0</v>
       </c>
       <c r="X19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y19" t="n">
         <v>0.0</v>
       </c>
       <c r="Z19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA19" t="n">
         <v>0.0</v>
       </c>
       <c r="AB19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AC19" t="n">
         <v>0.0</v>
       </c>
       <c r="AD19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE19" t="n">
         <v>0.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG19" t="n">
         <v>0.0</v>
       </c>
       <c r="AH19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI19" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK19" t="n">
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM19" t="n">
         <v>0.0</v>
       </c>
       <c r="AN19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AO19" t="n">
         <v>0.0</v>
@@ -3094,25 +3055,25 @@
         <v>162157.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1285.0</v>
+        <v>815.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1698.0</v>
+        <v>790.0</v>
       </c>
       <c r="E20" t="s">
         <v>72</v>
       </c>
       <c r="F20" t="n">
-        <v>3148.0</v>
+        <v>2071.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1941.0</v>
+        <v>1277.0</v>
       </c>
       <c r="H20" t="s">
         <v>91</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J20" t="s">
         <v>117</v>
@@ -3121,91 +3082,91 @@
         <v>0.0</v>
       </c>
       <c r="L20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M20" t="n">
         <v>0.0</v>
       </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O20" t="n">
         <v>0.0</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q20" t="n">
         <v>0.0</v>
       </c>
       <c r="R20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S20" t="n">
         <v>0.0</v>
       </c>
       <c r="T20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U20" t="n">
         <v>0.0</v>
       </c>
       <c r="V20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W20" t="n">
         <v>0.0</v>
       </c>
       <c r="X20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y20" t="n">
         <v>0.0</v>
       </c>
       <c r="Z20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
       </c>
       <c r="AD20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE20" t="n">
         <v>0.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG20" t="n">
         <v>0.0</v>
       </c>
       <c r="AH20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI20" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK20" t="n">
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM20" t="n">
         <v>0.0</v>
       </c>
       <c r="AN20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AO20" t="n">
         <v>0.0</v>
@@ -3219,19 +3180,19 @@
         <v>36819.0</v>
       </c>
       <c r="C21" t="n">
-        <v>157.0</v>
+        <v>106.0</v>
       </c>
       <c r="D21" t="n">
-        <v>914.0</v>
+        <v>452.0</v>
       </c>
       <c r="E21" t="s">
         <v>72</v>
       </c>
       <c r="F21" t="n">
-        <v>999.0</v>
+        <v>669.0</v>
       </c>
       <c r="G21" t="n">
-        <v>2713.0</v>
+        <v>1817.0</v>
       </c>
       <c r="H21" t="s">
         <v>92</v>
@@ -3240,97 +3201,97 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K21" t="n">
         <v>0.0</v>
       </c>
       <c r="L21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M21" t="n">
         <v>0.0</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O21" t="n">
         <v>0.0</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q21" t="n">
         <v>0.0</v>
       </c>
       <c r="R21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S21" t="n">
         <v>0.0</v>
       </c>
       <c r="T21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
       </c>
       <c r="V21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W21" t="n">
         <v>0.0</v>
       </c>
       <c r="X21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y21" t="n">
         <v>0.0</v>
       </c>
       <c r="Z21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA21" t="n">
         <v>0.0</v>
       </c>
       <c r="AB21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AC21" t="n">
         <v>0.0</v>
       </c>
       <c r="AD21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE21" t="n">
         <v>0.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG21" t="n">
         <v>0.0</v>
       </c>
       <c r="AH21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI21" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK21" t="n">
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM21" t="n">
         <v>0.0</v>
       </c>
       <c r="AN21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AO21" t="n">
         <v>0.0</v>
@@ -3344,118 +3305,118 @@
         <v>128794.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1581.0</v>
+        <v>1062.0</v>
       </c>
       <c r="D22" t="n">
-        <v>2630.0</v>
+        <v>1296.0</v>
       </c>
       <c r="E22" t="s">
         <v>72</v>
       </c>
       <c r="F22" t="n">
-        <v>3815.0</v>
+        <v>2583.0</v>
       </c>
       <c r="G22" t="n">
-        <v>2962.0</v>
+        <v>2006.0</v>
       </c>
       <c r="H22" t="s">
         <v>93</v>
       </c>
       <c r="I22" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K22" t="n">
         <v>0.0</v>
       </c>
       <c r="L22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M22" t="n">
         <v>0.0</v>
       </c>
       <c r="N22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O22" t="n">
         <v>0.0</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
       </c>
       <c r="R22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S22" t="n">
         <v>0.0</v>
       </c>
       <c r="T22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
       </c>
       <c r="V22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W22" t="n">
         <v>0.0</v>
       </c>
       <c r="X22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y22" t="n">
         <v>0.0</v>
       </c>
       <c r="Z22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA22" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AC22" t="n">
         <v>0.0</v>
       </c>
       <c r="AD22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE22" t="n">
         <v>0.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="AH22" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="AI22" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK22" t="n">
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM22" t="n">
         <v>4.0</v>
       </c>
       <c r="AN22" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AO22" t="n">
         <v>1.0</v>
@@ -3469,25 +3430,25 @@
         <v>2546396.0</v>
       </c>
       <c r="C23" t="n">
-        <v>32860.0</v>
+        <v>21957.0</v>
       </c>
       <c r="D23" t="n">
-        <v>2765.0</v>
+        <v>1355.0</v>
       </c>
       <c r="E23" t="s">
         <v>72</v>
       </c>
       <c r="F23" t="n">
-        <v>80957.0</v>
+        <v>54568.0</v>
       </c>
       <c r="G23" t="n">
-        <v>3179.0</v>
+        <v>2143.0</v>
       </c>
       <c r="H23" t="s">
         <v>94</v>
       </c>
       <c r="I23" t="n">
-        <v>337.0</v>
+        <v>262.0</v>
       </c>
       <c r="J23" t="s">
         <v>118</v>
@@ -3496,94 +3457,94 @@
         <v>0.0</v>
       </c>
       <c r="L23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M23" t="n">
         <v>0.0</v>
       </c>
       <c r="N23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O23" t="n">
         <v>0.0</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q23" t="n">
         <v>1.0</v>
       </c>
       <c r="R23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S23" t="n">
         <v>0.0</v>
       </c>
       <c r="T23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
       </c>
       <c r="V23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W23" t="n">
         <v>0.0</v>
       </c>
       <c r="X23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y23" t="n">
         <v>0.0</v>
       </c>
       <c r="Z23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA23" t="n">
-        <v>133.0</v>
+        <v>84.0</v>
       </c>
       <c r="AB23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AC23" t="n">
         <v>0.0</v>
       </c>
       <c r="AD23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE23" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AG23" t="n">
-        <v>159.0</v>
+        <v>141.0</v>
       </c>
       <c r="AH23" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AI23" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK23" t="n">
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM23" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="AN23" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AO23" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="24">
@@ -3594,19 +3555,19 @@
         <v>16293.0</v>
       </c>
       <c r="C24" t="n">
-        <v>76.0</v>
+        <v>58.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1000.0</v>
+        <v>559.0</v>
       </c>
       <c r="E24" t="s">
         <v>72</v>
       </c>
       <c r="F24" t="n">
-        <v>196.0</v>
+        <v>141.0</v>
       </c>
       <c r="G24" t="n">
-        <v>1203.0</v>
+        <v>865.0</v>
       </c>
       <c r="H24" t="s">
         <v>95</v>
@@ -3615,97 +3576,97 @@
         <v>0.0</v>
       </c>
       <c r="J24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K24" t="n">
         <v>0.0</v>
       </c>
       <c r="L24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M24" t="n">
         <v>0.0</v>
       </c>
       <c r="N24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O24" t="n">
         <v>0.0</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q24" t="n">
         <v>0.0</v>
       </c>
       <c r="R24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S24" t="n">
         <v>0.0</v>
       </c>
       <c r="T24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
       </c>
       <c r="V24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W24" t="n">
         <v>0.0</v>
       </c>
       <c r="X24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y24" t="n">
         <v>0.0</v>
       </c>
       <c r="Z24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA24" t="n">
         <v>0.0</v>
       </c>
       <c r="AB24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AC24" t="n">
         <v>0.0</v>
       </c>
       <c r="AD24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE24" t="n">
         <v>0.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG24" t="n">
         <v>0.0</v>
       </c>
       <c r="AH24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI24" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK24" t="n">
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM24" t="n">
         <v>0.0</v>
       </c>
       <c r="AN24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AO24" t="n">
         <v>0.0</v>
@@ -3719,118 +3680,118 @@
         <v>55309.0</v>
       </c>
       <c r="C25" t="n">
-        <v>394.0</v>
+        <v>238.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1526.0</v>
+        <v>676.0</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
       </c>
       <c r="F25" t="n">
-        <v>858.0</v>
+        <v>572.0</v>
       </c>
       <c r="G25" t="n">
-        <v>1551.0</v>
+        <v>1034.0</v>
       </c>
       <c r="H25" t="s">
         <v>96</v>
       </c>
       <c r="I25" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K25" t="n">
         <v>0.0</v>
       </c>
       <c r="L25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
       </c>
       <c r="N25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O25" t="n">
         <v>0.0</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q25" t="n">
         <v>0.0</v>
       </c>
       <c r="R25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S25" t="n">
         <v>0.0</v>
       </c>
       <c r="T25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
       </c>
       <c r="V25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W25" t="n">
         <v>0.0</v>
       </c>
       <c r="X25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y25" t="n">
         <v>0.0</v>
       </c>
       <c r="Z25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA25" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
       </c>
       <c r="AD25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE25" t="n">
         <v>0.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG25" t="n">
         <v>1.0</v>
       </c>
       <c r="AH25" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="AI25" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK25" t="n">
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM25" t="n">
         <v>0.0</v>
       </c>
       <c r="AN25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AO25" t="n">
         <v>0.0</v>
@@ -3844,118 +3805,118 @@
         <v>40851.0</v>
       </c>
       <c r="C26" t="n">
-        <v>262.0</v>
+        <v>189.0</v>
       </c>
       <c r="D26" t="n">
-        <v>1374.0</v>
+        <v>727.0</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
       </c>
       <c r="F26" t="n">
-        <v>986.0</v>
+        <v>683.0</v>
       </c>
       <c r="G26" t="n">
-        <v>2414.0</v>
+        <v>1672.0</v>
       </c>
       <c r="H26" t="s">
         <v>97</v>
       </c>
       <c r="I26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K26" t="n">
         <v>0.0</v>
       </c>
       <c r="L26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
       </c>
       <c r="N26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O26" t="n">
         <v>0.0</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q26" t="n">
         <v>0.0</v>
       </c>
       <c r="R26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S26" t="n">
         <v>0.0</v>
       </c>
       <c r="T26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U26" t="n">
         <v>0.0</v>
       </c>
       <c r="V26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W26" t="n">
         <v>0.0</v>
       </c>
       <c r="X26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y26" t="n">
         <v>0.0</v>
       </c>
       <c r="Z26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="AC26" t="n">
         <v>0.0</v>
       </c>
       <c r="AD26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE26" t="n">
         <v>0.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG26" t="n">
         <v>0.0</v>
       </c>
       <c r="AH26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI26" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK26" t="n">
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM26" t="n">
         <v>0.0</v>
       </c>
       <c r="AN26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AO26" t="n">
         <v>0.0</v>
@@ -3969,121 +3930,121 @@
         <v>514504.0</v>
       </c>
       <c r="C27" t="n">
-        <v>3603.0</v>
+        <v>2356.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1501.0</v>
+        <v>720.0</v>
       </c>
       <c r="E27" t="s">
         <v>72</v>
       </c>
       <c r="F27" t="n">
-        <v>8603.0</v>
+        <v>5750.0</v>
       </c>
       <c r="G27" t="n">
-        <v>1672.0</v>
+        <v>1118.0</v>
       </c>
       <c r="H27" t="s">
         <v>98</v>
       </c>
       <c r="I27" t="n">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K27" t="n">
         <v>0.0</v>
       </c>
       <c r="L27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M27" t="n">
         <v>0.0</v>
       </c>
       <c r="N27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0</v>
       </c>
       <c r="R27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S27" t="n">
         <v>0.0</v>
       </c>
       <c r="T27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
       </c>
       <c r="V27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W27" t="n">
         <v>0.0</v>
       </c>
       <c r="X27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y27" t="n">
         <v>0.0</v>
       </c>
       <c r="Z27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA27" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
       </c>
       <c r="AD27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="AG27" t="n">
         <v>5.0</v>
       </c>
       <c r="AH27" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AI27" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK27" t="n">
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM27" t="n">
         <v>1.0</v>
       </c>
       <c r="AN27" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="AO27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -4094,118 +4055,118 @@
         <v>83107.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1053.0</v>
+        <v>714.0</v>
       </c>
       <c r="D28" t="n">
-        <v>2715.0</v>
+        <v>1350.0</v>
       </c>
       <c r="E28" t="s">
         <v>72</v>
       </c>
       <c r="F28" t="n">
-        <v>2414.0</v>
+        <v>1677.0</v>
       </c>
       <c r="G28" t="n">
-        <v>2905.0</v>
+        <v>2018.0</v>
       </c>
       <c r="H28" t="s">
         <v>99</v>
       </c>
       <c r="I28" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K28" t="n">
         <v>0.0</v>
       </c>
       <c r="L28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
       </c>
       <c r="N28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O28" t="n">
         <v>0.0</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q28" t="n">
         <v>0.0</v>
       </c>
       <c r="R28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S28" t="n">
         <v>0.0</v>
       </c>
       <c r="T28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
       </c>
       <c r="V28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W28" t="n">
         <v>0.0</v>
       </c>
       <c r="X28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y28" t="n">
         <v>0.0</v>
       </c>
       <c r="Z28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="AC28" t="n">
         <v>0.0</v>
       </c>
       <c r="AD28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE28" t="n">
         <v>0.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH28" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="AI28" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK28" t="n">
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM28" t="n">
         <v>0.0</v>
       </c>
       <c r="AN28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AO28" t="n">
         <v>0.0</v>
@@ -4219,118 +4180,118 @@
         <v>282909.0</v>
       </c>
       <c r="C29" t="n">
-        <v>2695.0</v>
+        <v>1742.0</v>
       </c>
       <c r="D29" t="n">
-        <v>2041.0</v>
+        <v>968.0</v>
       </c>
       <c r="E29" t="s">
         <v>72</v>
       </c>
       <c r="F29" t="n">
-        <v>6729.0</v>
+        <v>4441.0</v>
       </c>
       <c r="G29" t="n">
-        <v>2379.0</v>
+        <v>1570.0</v>
       </c>
       <c r="H29" t="s">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="J29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
       </c>
       <c r="L29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M29" t="n">
         <v>0.0</v>
       </c>
       <c r="N29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O29" t="n">
         <v>0.0</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q29" t="n">
         <v>0.0</v>
       </c>
       <c r="R29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S29" t="n">
         <v>0.0</v>
       </c>
       <c r="T29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U29" t="n">
         <v>0.0</v>
       </c>
       <c r="V29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W29" t="n">
         <v>0.0</v>
       </c>
       <c r="X29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y29" t="n">
         <v>0.0</v>
       </c>
       <c r="Z29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB29" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
       </c>
       <c r="AD29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE29" t="n">
         <v>0.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG29" t="n">
         <v>6.0</v>
       </c>
       <c r="AH29" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AI29" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK29" t="n">
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM29" t="n">
         <v>2.0</v>
       </c>
       <c r="AN29" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="AO29" t="n">
         <v>0.0</v>
@@ -4344,121 +4305,121 @@
         <v>1553423.0</v>
       </c>
       <c r="C30" t="n">
-        <v>24777.0</v>
+        <v>16660.0</v>
       </c>
       <c r="D30" t="n">
-        <v>3418.0</v>
+        <v>1685.0</v>
       </c>
       <c r="E30" t="s">
         <v>72</v>
       </c>
       <c r="F30" t="n">
-        <v>61171.0</v>
+        <v>41304.0</v>
       </c>
       <c r="G30" t="n">
-        <v>3938.0</v>
+        <v>2659.0</v>
       </c>
       <c r="H30" t="s">
         <v>101</v>
       </c>
       <c r="I30" t="n">
-        <v>295.0</v>
+        <v>246.0</v>
       </c>
       <c r="J30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
       </c>
       <c r="L30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
       </c>
       <c r="N30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O30" t="n">
         <v>0.0</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q30" t="n">
         <v>1.0</v>
       </c>
       <c r="R30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S30" t="n">
         <v>0.0</v>
       </c>
       <c r="T30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U30" t="n">
         <v>0.0</v>
       </c>
       <c r="V30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W30" t="n">
         <v>0.0</v>
       </c>
       <c r="X30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y30" t="n">
         <v>0.0</v>
       </c>
       <c r="Z30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA30" t="n">
-        <v>110.0</v>
+        <v>83.0</v>
       </c>
       <c r="AB30" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AC30" t="n">
         <v>0.0</v>
       </c>
       <c r="AD30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE30" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AG30" t="n">
-        <v>145.0</v>
+        <v>129.0</v>
       </c>
       <c r="AH30" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="AI30" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK30" t="n">
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM30" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="AN30" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="AO30" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="31">
@@ -4469,121 +4430,121 @@
         <v>551082.0</v>
       </c>
       <c r="C31" t="n">
-        <v>6586.0</v>
+        <v>4340.0</v>
       </c>
       <c r="D31" t="n">
-        <v>2561.0</v>
+        <v>1238.0</v>
       </c>
       <c r="E31" t="s">
         <v>72</v>
       </c>
       <c r="F31" t="n">
-        <v>19145.0</v>
+        <v>13191.0</v>
       </c>
       <c r="G31" t="n">
-        <v>3474.0</v>
+        <v>2394.0</v>
       </c>
       <c r="H31" t="s">
         <v>102</v>
       </c>
       <c r="I31" t="n">
-        <v>125.0</v>
+        <v>94.0</v>
       </c>
       <c r="J31" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
       </c>
       <c r="L31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O31" t="n">
         <v>0.0</v>
       </c>
       <c r="P31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q31" t="n">
         <v>0.0</v>
       </c>
       <c r="R31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S31" t="n">
         <v>0.0</v>
       </c>
       <c r="T31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U31" t="n">
         <v>0.0</v>
       </c>
       <c r="V31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W31" t="n">
         <v>0.0</v>
       </c>
       <c r="X31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y31" t="n">
         <v>0.0</v>
       </c>
       <c r="Z31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA31" t="n">
-        <v>48.0</v>
+        <v>29.0</v>
       </c>
       <c r="AB31" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AC31" t="n">
         <v>0.0</v>
       </c>
       <c r="AD31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AG31" t="n">
-        <v>62.0</v>
+        <v>54.0</v>
       </c>
       <c r="AH31" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AI31" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK31" t="n">
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM31" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AN31" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="AO31" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="32">
@@ -4594,118 +4555,118 @@
         <v>200096.0</v>
       </c>
       <c r="C32" t="n">
-        <v>2020.0</v>
+        <v>1323.0</v>
       </c>
       <c r="D32" t="n">
-        <v>2163.0</v>
+        <v>1039.0</v>
       </c>
       <c r="E32" t="s">
         <v>72</v>
       </c>
       <c r="F32" t="n">
-        <v>5008.0</v>
+        <v>3375.0</v>
       </c>
       <c r="G32" t="n">
-        <v>2503.0</v>
+        <v>1687.0</v>
       </c>
       <c r="H32" t="s">
         <v>103</v>
       </c>
       <c r="I32" t="n">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
       <c r="J32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K32" t="n">
         <v>0.0</v>
       </c>
       <c r="L32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M32" t="n">
         <v>0.0</v>
       </c>
       <c r="N32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O32" t="n">
         <v>0.0</v>
       </c>
       <c r="P32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q32" t="n">
         <v>0.0</v>
       </c>
       <c r="R32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S32" t="n">
         <v>0.0</v>
       </c>
       <c r="T32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
       </c>
       <c r="V32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W32" t="n">
         <v>0.0</v>
       </c>
       <c r="X32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y32" t="n">
         <v>0.0</v>
       </c>
       <c r="Z32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA32" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB32" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
       </c>
       <c r="AD32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE32" t="n">
         <v>0.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG32" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="AH32" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="AI32" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK32" t="n">
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM32" t="n">
         <v>1.0</v>
       </c>
       <c r="AN32" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="AO32" t="n">
         <v>2.0</v>
@@ -4719,121 +4680,121 @@
         <v>350986.0</v>
       </c>
       <c r="C33" t="n">
-        <v>4566.0</v>
+        <v>3017.0</v>
       </c>
       <c r="D33" t="n">
-        <v>2788.0</v>
+        <v>1351.0</v>
       </c>
       <c r="E33" t="s">
         <v>72</v>
       </c>
       <c r="F33" t="n">
-        <v>14137.0</v>
+        <v>9816.0</v>
       </c>
       <c r="G33" t="n">
-        <v>4028.0</v>
+        <v>2797.0</v>
       </c>
       <c r="H33" t="s">
         <v>104</v>
       </c>
       <c r="I33" t="n">
-        <v>93.0</v>
+        <v>74.0</v>
       </c>
       <c r="J33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K33" t="n">
         <v>0.0</v>
       </c>
       <c r="L33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
       </c>
       <c r="N33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O33" t="n">
         <v>0.0</v>
       </c>
       <c r="P33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
       </c>
       <c r="R33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S33" t="n">
         <v>0.0</v>
       </c>
       <c r="T33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U33" t="n">
         <v>0.0</v>
       </c>
       <c r="V33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W33" t="n">
         <v>0.0</v>
       </c>
       <c r="X33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y33" t="n">
         <v>0.0</v>
       </c>
       <c r="Z33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA33" t="n">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
       <c r="AB33" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
       </c>
       <c r="AD33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE33" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="AG33" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="AH33" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="AI33" t="n">
         <v>0.0</v>
       </c>
       <c r="AJ33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AK33" t="n">
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM33" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AN33" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="AO33" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
